--- a/e2e_test_output_12week_forecast_test/simulation_output/module5/Module5Output_20240107.xlsx
+++ b/e2e_test_output_12week_forecast_test/simulation_output/module5/Module5Output_20240107.xlsx
@@ -513,24 +513,24 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -540,14 +540,14 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>1316</v>
+        <v>962</v>
       </c>
     </row>
     <row r="3">
@@ -556,7 +556,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -570,7 +570,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -578,7 +578,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -595,7 +595,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1316</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="4">
@@ -604,7 +604,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -618,7 +618,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -643,7 +643,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>1316</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="5">
@@ -652,7 +652,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -666,15 +666,15 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -691,7 +691,7 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>1316</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="6">
@@ -714,15 +714,15 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>1316</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="7">
@@ -753,16 +753,16 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -770,7 +770,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -780,14 +780,14 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K7" t="n">
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>1316</v>
+        <v>962</v>
       </c>
     </row>
     <row r="8">
@@ -801,16 +801,16 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -818,7 +818,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -828,14 +828,14 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>1316</v>
+        <v>962</v>
       </c>
     </row>
     <row r="9">
@@ -849,24 +849,24 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>80</v>
+        <v>37</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>80</v>
+        <v>37</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -876,14 +876,14 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>1316</v>
+        <v>962</v>
       </c>
     </row>
     <row r="10">
@@ -906,15 +906,15 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -931,7 +931,7 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>941</v>
+        <v>962</v>
       </c>
     </row>
     <row r="11">
@@ -940,21 +940,21 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -962,7 +962,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -972,14 +972,14 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>941</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="12">
@@ -988,21 +988,21 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -1010,7 +1010,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1020,14 +1020,14 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>941</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="13">
@@ -1036,29 +1036,29 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1068,14 +1068,14 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K13" t="n">
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>941</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="14">
@@ -1089,16 +1089,16 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1116,14 +1116,14 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>941</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="15">
@@ -1132,7 +1132,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -1154,10 +1154,10 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="H15" t="n">
-        <v>86</v>
+        <v>46</v>
       </c>
       <c r="I15" s="2" t="n">
         <v>45298</v>
@@ -1168,10 +1168,10 @@
         </is>
       </c>
       <c r="K15" t="n">
-        <v>86</v>
+        <v>46</v>
       </c>
       <c r="L15" t="n">
-        <v>1444</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="16">
@@ -1180,7 +1180,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1194,7 +1194,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -1202,10 +1202,10 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H16" t="n">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="I16" s="2" t="n">
         <v>45299</v>
@@ -1216,7 +1216,7 @@
         </is>
       </c>
       <c r="K16" t="n">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="L16" t="inlineStr">
         <is>
@@ -1230,7 +1230,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1244,7 +1244,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -1252,10 +1252,10 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H17" t="n">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="I17" s="2" t="n">
         <v>45300</v>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="K17" t="n">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="L17" t="inlineStr">
         <is>
@@ -1280,7 +1280,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1294,7 +1294,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -1302,10 +1302,10 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H18" t="n">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="I18" s="2" t="n">
         <v>45301</v>
@@ -1316,7 +1316,7 @@
         </is>
       </c>
       <c r="K18" t="n">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="L18" t="inlineStr">
         <is>
@@ -1330,7 +1330,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1344,7 +1344,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -1352,7 +1352,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1369,12 +1369,12 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>1316</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45299</v>
+        <v>45298</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1388,43 +1388,41 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>43</v>
+        <v>100</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H20" t="n">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>45299</v>
+        <v>45298</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="K20" t="n">
-        <v>43</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>63</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1589</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45300</v>
+        <v>45299</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1438,11 +1436,11 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -1453,18 +1451,18 @@
         <v>50</v>
       </c>
       <c r="H21" t="n">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>45300</v>
+        <v>45299</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K21" t="n">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="L21" t="inlineStr">
         <is>
@@ -1474,7 +1472,7 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45301</v>
+        <v>45300</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1488,11 +1486,11 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -1503,18 +1501,18 @@
         <v>50</v>
       </c>
       <c r="H22" t="n">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>45301</v>
+        <v>45300</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K22" t="n">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="L22" t="inlineStr">
         <is>
@@ -1524,7 +1522,7 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45298</v>
+        <v>45301</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1538,36 +1536,38 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>net demand for safety</t>
+          <t>net demand for forecast</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>45292</v>
+        <v>45301</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>941</v>
+        <v>31</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="24">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1586,7 +1586,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -1594,28 +1594,28 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>net demand for safety</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="H24" t="n">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>45298</v>
+        <v>45292</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K24" t="n">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>1444</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="25">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1634,11 +1634,11 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -1646,21 +1646,21 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H25" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I25" s="2" t="n">
         <v>45299</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K25" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="L25" t="inlineStr">
         <is>
@@ -1674,7 +1674,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1684,11 +1684,11 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -1696,21 +1696,21 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H26" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I26" s="2" t="n">
         <v>45300</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K26" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="L26" t="inlineStr">
         <is>
@@ -1724,7 +1724,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1734,11 +1734,11 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -1746,21 +1746,21 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H27" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I27" s="2" t="n">
         <v>45301</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K27" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="L27" t="inlineStr">
         <is>
@@ -1774,7 +1774,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1784,11 +1784,11 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1806,14 +1806,14 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K28" t="n">
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>1316</v>
+        <v>962</v>
       </c>
     </row>
   </sheetData>
@@ -1878,24 +1878,24 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -1918,7 +1918,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -1926,7 +1926,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -1949,7 +1949,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -1957,7 +1957,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -1980,15 +1980,15 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -2011,15 +2011,15 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -2033,16 +2033,16 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -2050,7 +2050,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -2064,16 +2064,16 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -2081,7 +2081,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -2095,24 +2095,24 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>80</v>
+        <v>37</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>80</v>
+        <v>37</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -2135,15 +2135,15 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -2157,16 +2157,16 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -2174,7 +2174,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -2188,16 +2188,16 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -2219,24 +2219,24 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -2250,16 +2250,16 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -2267,7 +2267,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -2290,7 +2290,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -2298,7 +2298,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -2329,7 +2329,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -2352,7 +2352,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -2360,7 +2360,7 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -2383,7 +2383,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -2391,7 +2391,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -2414,7 +2414,7 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -2422,7 +2422,7 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -2432,7 +2432,7 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45299</v>
+        <v>45298</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -2441,19 +2441,19 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>43</v>
+        <v>100</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -2463,7 +2463,7 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45300</v>
+        <v>45299</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -2472,11 +2472,11 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -2484,7 +2484,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -2494,7 +2494,7 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45301</v>
+        <v>45300</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -2503,11 +2503,11 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -2515,7 +2515,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -2525,7 +2525,7 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45298</v>
+        <v>45301</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -2534,19 +2534,19 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>net demand for safety</t>
+          <t>net demand for forecast</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -2565,7 +2565,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D24" t="n">
@@ -2573,11 +2573,11 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>net demand for safety</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -2596,11 +2596,11 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -2608,7 +2608,7 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -2627,11 +2627,11 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -2639,7 +2639,7 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -2658,11 +2658,11 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -2670,7 +2670,7 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -2689,11 +2689,11 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -2701,7 +2701,7 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -2783,19 +2783,19 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
         <v>45298</v>
       </c>
       <c r="D2" t="n">
-        <v>148</v>
+        <v>15</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -2813,7 +2813,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>148</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3">
@@ -2824,14 +2824,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="C3" s="2" t="n">
         <v>45298</v>
       </c>
       <c r="D3" t="n">
-        <v>15</v>
+        <v>130</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -2849,7 +2849,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>15</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4">
@@ -2860,14 +2860,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C4" s="2" t="n">
         <v>45298</v>
       </c>
       <c r="D4" t="n">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -2876,16 +2876,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H4" t="n">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>44</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -2903,7 +2903,7 @@
         <v>45298</v>
       </c>
       <c r="D5" t="n">
-        <v>186</v>
+        <v>133</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -2912,16 +2912,16 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="H5" t="n">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>159</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6">
@@ -2932,14 +2932,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="C6" s="2" t="n">
         <v>45298</v>
       </c>
       <c r="D6" t="n">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -2948,34 +2948,34 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>25</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C7" s="2" t="n">
         <v>45298</v>
       </c>
       <c r="D7" t="n">
-        <v>160</v>
+        <v>42</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -2984,16 +2984,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>160</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/e2e_test_output_12week_forecast_test/simulation_output/module5/Module5Output_20240107.xlsx
+++ b/e2e_test_output_12week_forecast_test/simulation_output/module5/Module5Output_20240107.xlsx
@@ -508,7 +508,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -522,15 +522,15 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -547,7 +547,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>962</v>
+        <v>985</v>
       </c>
     </row>
     <row r="3">
@@ -561,16 +561,16 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -578,7 +578,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -588,14 +588,14 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1382</v>
+        <v>985</v>
       </c>
     </row>
     <row r="4">
@@ -609,16 +609,16 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -636,14 +636,14 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>1382</v>
+        <v>985</v>
       </c>
     </row>
     <row r="5">
@@ -657,24 +657,24 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -684,14 +684,14 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>1382</v>
+        <v>985</v>
       </c>
     </row>
     <row r="6">
@@ -700,7 +700,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -714,15 +714,15 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>80</v>
+        <v>36</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>80</v>
+        <v>36</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>1382</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="7">
@@ -748,21 +748,21 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -770,7 +770,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -780,14 +780,14 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K7" t="n">
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>962</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="8">
@@ -796,21 +796,21 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -818,7 +818,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -828,14 +828,14 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>962</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="9">
@@ -844,29 +844,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -876,14 +876,14 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>962</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="10">
@@ -897,24 +897,24 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -924,14 +924,14 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K10" t="n">
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>962</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="11">
@@ -940,7 +940,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -954,7 +954,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -962,7 +962,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -979,7 +979,7 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>1382</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="12">
@@ -988,7 +988,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1002,7 +1002,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -1010,7 +1010,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1027,7 +1027,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>1382</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="13">
@@ -1036,7 +1036,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1050,15 +1050,15 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>1382</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="14">
@@ -1089,16 +1089,16 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1116,14 +1116,14 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>1382</v>
+        <v>985</v>
       </c>
     </row>
     <row r="15">
@@ -1132,7 +1132,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -1154,10 +1154,10 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="H15" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="I15" s="2" t="n">
         <v>45298</v>
@@ -1168,10 +1168,10 @@
         </is>
       </c>
       <c r="K15" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>1589</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="16">
@@ -1180,7 +1180,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1190,11 +1190,11 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -1202,21 +1202,21 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H16" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="I16" s="2" t="n">
         <v>45299</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K16" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="L16" t="inlineStr">
         <is>
@@ -1230,7 +1230,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1240,11 +1240,11 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -1252,21 +1252,21 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H17" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="I17" s="2" t="n">
         <v>45300</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K17" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="L17" t="inlineStr">
         <is>
@@ -1280,7 +1280,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1290,11 +1290,11 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -1302,21 +1302,21 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H18" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="I18" s="2" t="n">
         <v>45301</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K18" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="L18" t="inlineStr">
         <is>
@@ -1330,7 +1330,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1340,11 +1340,11 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -1352,7 +1352,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1362,19 +1362,19 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K19" t="n">
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>1382</v>
+        <v>985</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45298</v>
+        <v>45299</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1388,41 +1388,43 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>net demand for forecast</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H20" t="n">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>45298</v>
+        <v>45299</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K20" t="n">
-        <v>63</v>
-      </c>
-      <c r="L20" t="n">
-        <v>1589</v>
+        <v>0</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45299</v>
+        <v>45300</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1451,10 +1453,10 @@
         <v>50</v>
       </c>
       <c r="H21" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>45299</v>
+        <v>45300</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -1462,7 +1464,7 @@
         </is>
       </c>
       <c r="K21" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="L21" t="inlineStr">
         <is>
@@ -1472,7 +1474,7 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45300</v>
+        <v>45301</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1490,7 +1492,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -1501,10 +1503,10 @@
         <v>50</v>
       </c>
       <c r="H22" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>45300</v>
+        <v>45301</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -1512,7 +1514,7 @@
         </is>
       </c>
       <c r="K22" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="L22" t="inlineStr">
         <is>
@@ -1522,7 +1524,7 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45301</v>
+        <v>45298</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1540,21 +1542,21 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>net demand for safety</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H23" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>45301</v>
+        <v>45292</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -1562,12 +1564,10 @@
         </is>
       </c>
       <c r="K23" t="n">
-        <v>31</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1380</v>
       </c>
     </row>
     <row r="24">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1586,7 +1586,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -1594,28 +1594,28 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>net demand for safety</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>45292</v>
+        <v>45298</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>1382</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="25">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1634,11 +1634,11 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -1646,21 +1646,21 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H25" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="I25" s="2" t="n">
         <v>45299</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K25" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="L25" t="inlineStr">
         <is>
@@ -1674,7 +1674,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1684,11 +1684,11 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -1696,21 +1696,21 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H26" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="I26" s="2" t="n">
         <v>45300</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K26" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="L26" t="inlineStr">
         <is>
@@ -1724,7 +1724,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1734,11 +1734,11 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -1746,21 +1746,21 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H27" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="I27" s="2" t="n">
         <v>45301</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K27" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="L27" t="inlineStr">
         <is>
@@ -1774,7 +1774,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1784,19 +1784,19 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E28" t="n">
+        <v>50</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>net demand for safety</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
         <v>60</v>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>net demand for safety</t>
-        </is>
-      </c>
-      <c r="G28" t="n">
-        <v>75</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1806,14 +1806,14 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K28" t="n">
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>962</v>
+        <v>1380</v>
       </c>
     </row>
   </sheetData>
@@ -1887,15 +1887,15 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -1909,16 +1909,16 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -1926,7 +1926,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -1940,16 +1940,16 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -1957,7 +1957,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -1971,24 +1971,24 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -2011,15 +2011,15 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>80</v>
+        <v>36</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>80</v>
+        <v>36</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -2033,16 +2033,16 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -2050,7 +2050,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -2064,16 +2064,16 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -2081,7 +2081,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -2095,24 +2095,24 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -2126,24 +2126,24 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -2166,7 +2166,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -2174,7 +2174,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -2197,7 +2197,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -2228,15 +2228,15 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -2250,16 +2250,16 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -2267,7 +2267,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -2290,7 +2290,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -2298,7 +2298,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>34</v>
+        <v>100</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -2317,11 +2317,11 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -2329,7 +2329,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -2348,11 +2348,11 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -2360,7 +2360,7 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -2379,11 +2379,11 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -2391,7 +2391,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -2410,11 +2410,11 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -2422,7 +2422,7 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -2432,7 +2432,7 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45298</v>
+        <v>45299</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -2441,19 +2441,19 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>net demand for forecast</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -2463,7 +2463,7 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45299</v>
+        <v>45300</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -2484,7 +2484,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -2494,7 +2494,7 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45300</v>
+        <v>45301</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -2507,15 +2507,15 @@
         </is>
       </c>
       <c r="D22" t="n">
+        <v>42</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
         <v>50</v>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>net demand for forecast</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>19</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -2525,7 +2525,7 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45301</v>
+        <v>45298</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -2538,15 +2538,15 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>net demand for safety</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -2565,7 +2565,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="D24" t="n">
@@ -2573,11 +2573,11 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>net demand for safety</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -2596,11 +2596,11 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -2608,7 +2608,7 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -2627,11 +2627,11 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -2639,7 +2639,7 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -2658,11 +2658,11 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -2670,7 +2670,7 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -2689,19 +2689,19 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D28" t="n">
+        <v>50</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>net demand for safety</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
         <v>60</v>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>net demand for safety</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>75</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -2783,7 +2783,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -2795,7 +2795,7 @@
         <v>45298</v>
       </c>
       <c r="D2" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -2813,25 +2813,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C3" s="2" t="n">
         <v>45298</v>
       </c>
       <c r="D3" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -2849,7 +2849,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -2860,14 +2860,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="C4" s="2" t="n">
         <v>45298</v>
       </c>
       <c r="D4" t="n">
-        <v>30</v>
+        <v>101</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -2876,16 +2876,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>10</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5">
@@ -2896,14 +2896,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C5" s="2" t="n">
         <v>45298</v>
       </c>
       <c r="D5" t="n">
-        <v>133</v>
+        <v>15</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -2912,34 +2912,34 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>108</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C6" s="2" t="n">
         <v>45298</v>
       </c>
       <c r="D6" t="n">
-        <v>8</v>
+        <v>159</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -2951,31 +2951,31 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>8</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="C7" s="2" t="n">
         <v>45298</v>
       </c>
       <c r="D7" t="n">
-        <v>42</v>
+        <v>160</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -2984,16 +2984,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>23</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>

--- a/e2e_test_output_12week_forecast_test/simulation_output/module5/Module5Output_20240107.xlsx
+++ b/e2e_test_output_12week_forecast_test/simulation_output/module5/Module5Output_20240107.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L28"/>
+  <dimension ref="A1:L43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -666,15 +666,15 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -700,21 +700,21 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -722,7 +722,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -732,14 +732,14 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>1380</v>
+        <v>985</v>
       </c>
     </row>
     <row r="7">
@@ -748,29 +748,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -780,14 +780,14 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K7" t="n">
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>1380</v>
+        <v>985</v>
       </c>
     </row>
     <row r="8">
@@ -801,24 +801,24 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -828,14 +828,14 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>1380</v>
+        <v>985</v>
       </c>
     </row>
     <row r="9">
@@ -844,7 +844,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -862,7 +862,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G9" t="n">
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>1380</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="10">
@@ -931,7 +931,7 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>1380</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="11">
@@ -954,7 +954,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -962,7 +962,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -979,7 +979,7 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>1380</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="12">
@@ -1002,7 +1002,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -1010,7 +1010,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1027,7 +1027,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>1380</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="13">
@@ -1050,15 +1050,15 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>1380</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="14">
@@ -1084,21 +1084,21 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1116,14 +1116,14 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>985</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="15">
@@ -1132,29 +1132,29 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1164,164 +1164,158 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>1739</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45299</v>
+        <v>45298</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>45299</v>
+        <v>45298</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K16" t="n">
         <v>0</v>
       </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="L16" t="n">
+        <v>1347</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45300</v>
+        <v>45298</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>45300</v>
+        <v>45298</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K17" t="n">
         <v>0</v>
       </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="L17" t="n">
+        <v>1347</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45301</v>
+        <v>45298</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>45301</v>
+        <v>45298</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="L18" t="n">
+        <v>1347</v>
       </c>
     </row>
     <row r="19">
@@ -1330,60 +1324,60 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>net demand for safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" s="2" t="n">
-        <v>45292</v>
+        <v>45298</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K19" t="n">
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>985</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45299</v>
+        <v>45298</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1392,21 +1386,21 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>45299</v>
+        <v>45298</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1416,24 +1410,22 @@
       <c r="K20" t="n">
         <v>0</v>
       </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="L20" t="n">
+        <v>1347</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45300</v>
+        <v>45298</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1442,21 +1434,21 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>45300</v>
+        <v>45298</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -1466,24 +1458,22 @@
       <c r="K21" t="n">
         <v>0</v>
       </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="L21" t="n">
+        <v>1347</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45301</v>
+        <v>45298</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1492,11 +1482,11 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G22" t="n">
@@ -1506,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>45301</v>
+        <v>45298</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -1516,10 +1506,8 @@
       <c r="K22" t="n">
         <v>0</v>
       </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="L22" t="n">
+        <v>1347</v>
       </c>
     </row>
     <row r="23">
@@ -1538,15 +1526,15 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>net demand for safety</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G23" t="n">
@@ -1556,27 +1544,27 @@
         <v>0</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>45292</v>
+        <v>45298</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>1380</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45298</v>
+        <v>45299</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1586,45 +1574,47 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>net demand for forecast</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>45298</v>
+        <v>45299</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
-      <c r="L24" t="n">
-        <v>1739</v>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45299</v>
+        <v>45300</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1634,11 +1624,11 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -1646,17 +1636,17 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" s="2" t="n">
-        <v>45299</v>
+        <v>45300</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K25" t="n">
@@ -1670,11 +1660,11 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45300</v>
+        <v>45301</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1684,11 +1674,11 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -1696,17 +1686,17 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" s="2" t="n">
-        <v>45300</v>
+        <v>45301</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K26" t="n">
@@ -1720,11 +1710,11 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45301</v>
+        <v>45302</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1734,11 +1724,11 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -1746,17 +1736,17 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" s="2" t="n">
-        <v>45301</v>
+        <v>45302</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K27" t="n">
@@ -1770,50 +1760,794 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45298</v>
+        <v>45303</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>DC_002</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>43</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>50</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" s="2" t="n">
+        <v>45303</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>DC_002</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>DC_002</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>60</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>net demand for safety</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>75</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" s="2" t="n">
+        <v>45292</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>DC_002</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45299</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>50</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>50</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" s="2" t="n">
+        <v>45299</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45300</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>50</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>50</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" s="2" t="n">
+        <v>45300</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45301</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>41</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>50</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" s="2" t="n">
+        <v>45301</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45302</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>50</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>50</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" s="2" t="n">
+        <v>45302</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45303</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>50</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v>50</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" s="2" t="n">
+        <v>45303</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>80</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>net demand for safety</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>100</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" s="2" t="n">
+        <v>45292</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
           <t>MAT_B</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>PLANT_001</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>DC_001</t>
-        </is>
-      </c>
-      <c r="E28" t="n">
-        <v>50</v>
-      </c>
-      <c r="F28" t="inlineStr">
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>80</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>safety</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
+        <v>80</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45299</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>36</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
+        <v>40</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" s="2" t="n">
+        <v>45299</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45300</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>32</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="G38" t="n">
+        <v>40</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" s="2" t="n">
+        <v>45300</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45301</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>36</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="G39" t="n">
+        <v>40</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" s="2" t="n">
+        <v>45301</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45302</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>36</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="G40" t="n">
+        <v>40</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" s="2" t="n">
+        <v>45302</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45303</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>36</v>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="G41" t="n">
+        <v>40</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" s="2" t="n">
+        <v>45303</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45304</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>35</v>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="G42" t="n">
+        <v>40</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" s="2" t="n">
+        <v>45304</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>50</v>
+      </c>
+      <c r="F43" t="inlineStr">
         <is>
           <t>net demand for safety</t>
         </is>
       </c>
-      <c r="G28" t="n">
+      <c r="G43" t="n">
         <v>60</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" s="2" t="n">
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" s="2" t="n">
         <v>45292</v>
       </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>DC_001</t>
-        </is>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>1380</v>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>1347</v>
       </c>
     </row>
   </sheetData>
@@ -1827,7 +2561,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1980,15 +2714,15 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -2002,16 +2736,16 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -2019,7 +2753,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -2033,24 +2767,24 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -2064,24 +2798,24 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -2108,7 +2842,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -2166,7 +2900,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -2174,7 +2908,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -2197,7 +2931,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -2205,7 +2939,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -2228,15 +2962,15 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -2250,16 +2984,16 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -2267,7 +3001,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -2281,24 +3015,24 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -2308,28 +3042,28 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45299</v>
+        <v>45298</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -2339,28 +3073,28 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45300</v>
+        <v>45298</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -2370,28 +3104,28 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45301</v>
+        <v>45298</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -2405,24 +3139,24 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>net demand for safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -2432,11 +3166,11 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45299</v>
+        <v>45298</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -2445,15 +3179,15 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -2463,11 +3197,11 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45300</v>
+        <v>45298</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -2476,15 +3210,15 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -2494,11 +3228,11 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45301</v>
+        <v>45298</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -2507,11 +3241,11 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -2534,15 +3268,15 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>net demand for safety</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -2556,7 +3290,7 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45298</v>
+        <v>45299</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -2565,19 +3299,19 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>net demand for forecast</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -2587,7 +3321,7 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45299</v>
+        <v>45300</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -2596,11 +3330,11 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -2608,7 +3342,7 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -2618,7 +3352,7 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45300</v>
+        <v>45301</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -2627,11 +3361,11 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -2639,7 +3373,7 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -2649,7 +3383,7 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45301</v>
+        <v>45302</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -2658,11 +3392,11 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -2670,7 +3404,7 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -2680,7 +3414,7 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45298</v>
+        <v>45303</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -2689,21 +3423,486 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>50</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>supply shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>DC_002</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>60</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
           <t>net demand for safety</t>
         </is>
       </c>
-      <c r="F28" t="n">
+      <c r="F29" t="n">
+        <v>75</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>supply shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45299</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>50</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>50</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>supply shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45300</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>50</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>50</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>supply shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45301</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>41</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>50</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>supply shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45302</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>50</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>50</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>supply shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45303</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>50</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>50</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>supply shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>80</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>net demand for safety</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>100</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>supply shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>80</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>safety</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>80</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>supply shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45299</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>40</v>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>supply shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45300</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>32</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>40</v>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>supply shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45301</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>36</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>40</v>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>supply shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45302</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>36</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>40</v>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>supply shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45303</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>36</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>40</v>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>supply shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45304</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>35</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>40</v>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>supply shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>50</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>net demand for safety</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
         <v>60</v>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>supply shortage</t>
         </is>
@@ -2783,19 +3982,19 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
         <v>45298</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -2813,7 +4012,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3">
@@ -2824,14 +4023,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="C3" s="2" t="n">
         <v>45298</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -2849,25 +4048,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C4" s="2" t="n">
         <v>45298</v>
       </c>
       <c r="D4" t="n">
-        <v>101</v>
+        <v>191</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -2879,13 +4078,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>101</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5">
@@ -2927,7 +4126,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -2939,7 +4138,7 @@
         <v>45298</v>
       </c>
       <c r="D6" t="n">
-        <v>159</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -2951,31 +4150,31 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C7" s="2" t="n">
         <v>45298</v>
       </c>
       <c r="D7" t="n">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -2993,7 +4192,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>160</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/e2e_test_output_12week_forecast_test/simulation_output/module5/Module5Output_20240107.xlsx
+++ b/e2e_test_output_12week_forecast_test/simulation_output/module5/Module5Output_20240107.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L43"/>
+  <dimension ref="A1:M43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,10 +493,15 @@
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
+          <t>leadtime</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
           <t>deployed_qty</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quota</t>
         </is>
@@ -513,16 +518,16 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -530,7 +535,7 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -540,14 +545,17 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>985</v>
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1347</v>
       </c>
     </row>
     <row r="3">
@@ -561,16 +569,16 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -578,7 +586,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -588,14 +596,17 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>985</v>
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1347</v>
       </c>
     </row>
     <row r="4">
@@ -609,16 +620,16 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -626,7 +637,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -636,14 +647,17 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>985</v>
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1347</v>
       </c>
     </row>
     <row r="5">
@@ -657,16 +671,16 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -674,7 +688,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -684,14 +698,17 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>985</v>
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1347</v>
       </c>
     </row>
     <row r="6">
@@ -705,16 +722,16 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -722,7 +739,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -732,14 +749,17 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>985</v>
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1347</v>
       </c>
     </row>
     <row r="7">
@@ -753,16 +773,16 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -770,7 +790,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -780,14 +800,17 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K7" t="n">
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>985</v>
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1347</v>
       </c>
     </row>
     <row r="8">
@@ -796,7 +819,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -810,15 +833,15 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -835,6 +858,9 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
         <v>985</v>
       </c>
     </row>
@@ -849,16 +875,16 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -866,7 +892,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -876,14 +902,17 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>1347</v>
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>985</v>
       </c>
     </row>
     <row r="10">
@@ -897,16 +926,16 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -914,7 +943,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -924,14 +953,17 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K10" t="n">
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>1347</v>
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>985</v>
       </c>
     </row>
     <row r="11">
@@ -945,16 +977,16 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -962,7 +994,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -972,14 +1004,17 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>1347</v>
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>985</v>
       </c>
     </row>
     <row r="12">
@@ -993,16 +1028,16 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -1010,7 +1045,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1020,14 +1055,17 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>1347</v>
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>985</v>
       </c>
     </row>
     <row r="13">
@@ -1041,24 +1079,24 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1068,14 +1106,17 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K13" t="n">
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>1347</v>
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>985</v>
       </c>
     </row>
     <row r="14">
@@ -1084,7 +1125,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1098,15 +1139,15 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>80</v>
+        <v>36</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>80</v>
+        <v>36</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1123,6 +1164,9 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
         <v>1347</v>
       </c>
     </row>
@@ -1146,7 +1190,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -1154,7 +1198,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1171,6 +1215,9 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
         <v>1347</v>
       </c>
     </row>
@@ -1194,7 +1241,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -1202,7 +1249,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1219,6 +1266,9 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
         <v>1347</v>
       </c>
     </row>
@@ -1267,6 +1317,9 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
         <v>1347</v>
       </c>
     </row>
@@ -1315,6 +1368,9 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
         <v>1347</v>
       </c>
     </row>
@@ -1338,7 +1394,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -1346,7 +1402,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1363,6 +1419,9 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
         <v>1347</v>
       </c>
     </row>
@@ -1411,6 +1470,9 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
         <v>1347</v>
       </c>
     </row>
@@ -1434,15 +1496,15 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1459,6 +1521,9 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
         <v>1347</v>
       </c>
     </row>
@@ -1473,16 +1538,16 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -1490,7 +1555,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1500,14 +1565,17 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K22" t="n">
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>1347</v>
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>985</v>
       </c>
     </row>
     <row r="23">
@@ -1555,6 +1623,9 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
         <v>1800</v>
       </c>
     </row>
@@ -1574,11 +1645,11 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -1596,13 +1667,16 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" t="inlineStr">
+        <v>5</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -1624,11 +1698,11 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -1646,13 +1720,16 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="inlineStr">
+        <v>5</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -1674,11 +1751,11 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -1696,13 +1773,16 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="inlineStr">
+        <v>5</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -1724,11 +1804,11 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -1746,13 +1826,16 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
-      </c>
-      <c r="L27" t="inlineStr">
+        <v>5</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -1774,11 +1857,11 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -1796,13 +1879,16 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="inlineStr">
+        <v>5</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -1824,11 +1910,11 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -1836,7 +1922,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1846,14 +1932,17 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L29" t="n">
-        <v>985</v>
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1347</v>
       </c>
     </row>
     <row r="30">
@@ -1872,11 +1961,11 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -1894,13 +1983,16 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
-      </c>
-      <c r="L30" t="inlineStr">
+        <v>5</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -1922,11 +2014,11 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -1944,13 +2036,16 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" t="inlineStr">
+        <v>5</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -1972,11 +2067,11 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -1994,13 +2089,16 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="inlineStr">
+        <v>5</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -2022,11 +2120,11 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -2044,13 +2142,16 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
-      </c>
-      <c r="L33" t="inlineStr">
+        <v>5</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -2072,11 +2173,11 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -2094,13 +2195,16 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="inlineStr">
+        <v>5</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -2122,11 +2226,11 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -2134,7 +2238,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2144,14 +2248,17 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L35" t="n">
-        <v>1347</v>
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>985</v>
       </c>
     </row>
     <row r="36">
@@ -2199,6 +2306,9 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
         <v>1800</v>
       </c>
     </row>
@@ -2244,9 +2354,12 @@
         </is>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="inlineStr">
+        <v>7</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -2294,9 +2407,12 @@
         </is>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="inlineStr">
+        <v>7</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -2344,9 +2460,12 @@
         </is>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
-      </c>
-      <c r="L39" t="inlineStr">
+        <v>7</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -2394,9 +2513,12 @@
         </is>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="inlineStr">
+        <v>7</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -2444,9 +2566,12 @@
         </is>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="inlineStr">
+        <v>7</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -2494,9 +2619,12 @@
         </is>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
-      </c>
-      <c r="L42" t="inlineStr">
+        <v>7</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -2544,9 +2672,12 @@
         </is>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
         <v>1347</v>
       </c>
     </row>
@@ -2612,16 +2743,16 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -2629,7 +2760,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -2643,16 +2774,16 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -2660,7 +2791,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -2674,16 +2805,16 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -2691,7 +2822,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -2705,16 +2836,16 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -2722,7 +2853,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -2736,16 +2867,16 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -2753,7 +2884,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -2767,16 +2898,16 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -2784,7 +2915,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -2807,15 +2938,15 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -2829,16 +2960,16 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -2846,7 +2977,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -2860,16 +2991,16 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -2877,7 +3008,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -2891,16 +3022,16 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -2908,7 +3039,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -2922,16 +3053,16 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -2939,7 +3070,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -2953,24 +3084,24 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -2993,15 +3124,15 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>80</v>
+        <v>36</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>80</v>
+        <v>36</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -3024,7 +3155,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -3032,7 +3163,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -3055,7 +3186,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -3063,7 +3194,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -3148,7 +3279,7 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -3156,7 +3287,7 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -3210,15 +3341,15 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -3232,16 +3363,16 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -3249,7 +3380,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -3299,11 +3430,11 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -3330,11 +3461,11 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -3361,11 +3492,11 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -3392,11 +3523,11 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -3423,11 +3554,11 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -3454,11 +3585,11 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -3466,7 +3597,7 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -3485,11 +3616,11 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -3516,11 +3647,11 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -3547,11 +3678,11 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -3578,11 +3709,11 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -3609,11 +3740,11 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -3640,11 +3771,11 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -3652,7 +3783,7 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -3987,14 +4118,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
         <v>45298</v>
       </c>
       <c r="D2" t="n">
-        <v>110</v>
+        <v>191</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -4006,13 +4137,13 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>110</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3">
@@ -4023,14 +4154,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C3" s="2" t="n">
         <v>45298</v>
       </c>
       <c r="D3" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -4048,7 +4179,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -4059,14 +4190,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C4" s="2" t="n">
         <v>45298</v>
       </c>
       <c r="D4" t="n">
-        <v>191</v>
+        <v>15</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -4078,31 +4209,31 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>153</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C5" s="2" t="n">
         <v>45298</v>
       </c>
       <c r="D5" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -4120,7 +4251,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -4131,14 +4262,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="C6" s="2" t="n">
         <v>45298</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -4156,25 +4287,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="C7" s="2" t="n">
         <v>45298</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -4192,7 +4323,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/e2e_test_output_12week_forecast_test/simulation_output/module5/Module5Output_20240107.xlsx
+++ b/e2e_test_output_12week_forecast_test/simulation_output/module5/Module5Output_20240107.xlsx
@@ -513,7 +513,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -527,7 +527,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -535,7 +535,7 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -564,7 +564,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -578,7 +578,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -586,7 +586,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -615,7 +615,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -629,7 +629,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -637,7 +637,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -666,7 +666,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -680,7 +680,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -688,7 +688,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -717,7 +717,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -768,7 +768,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -782,15 +782,15 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -819,21 +819,21 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -841,7 +841,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -851,7 +851,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K8" t="n">
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>985</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="9">
@@ -870,29 +870,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -902,7 +902,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K9" t="n">
@@ -912,7 +912,7 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>985</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="10">
@@ -935,7 +935,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -943,7 +943,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1037,7 +1037,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -1045,7 +1045,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1088,15 +1088,15 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1125,21 +1125,21 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -1147,7 +1147,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1157,7 +1157,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K14" t="n">
@@ -1167,7 +1167,7 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>1347</v>
+        <v>985</v>
       </c>
     </row>
     <row r="15">
@@ -1176,29 +1176,29 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1208,7 +1208,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K15" t="n">
@@ -1218,7 +1218,7 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>1347</v>
+        <v>985</v>
       </c>
     </row>
     <row r="16">
@@ -1227,7 +1227,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1241,7 +1241,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -1249,7 +1249,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1278,7 +1278,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1292,7 +1292,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -1300,7 +1300,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1329,7 +1329,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1343,7 +1343,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -1351,7 +1351,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1380,7 +1380,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1394,7 +1394,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -1402,7 +1402,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1431,7 +1431,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1445,7 +1445,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -1453,7 +1453,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1482,7 +1482,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -1504,7 +1504,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1645,11 +1645,11 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -1667,7 +1667,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K24" t="n">
@@ -1698,11 +1698,11 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -1720,7 +1720,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K25" t="n">
@@ -1751,11 +1751,11 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -1773,7 +1773,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K26" t="n">
@@ -1804,11 +1804,11 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K27" t="n">
@@ -1857,11 +1857,11 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -1879,7 +1879,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K28" t="n">
@@ -1910,11 +1910,11 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -1922,7 +1922,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1932,7 +1932,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K29" t="n">
@@ -1942,7 +1942,7 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>1347</v>
+        <v>985</v>
       </c>
     </row>
     <row r="30">
@@ -1961,11 +1961,11 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -1983,7 +1983,7 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K30" t="n">
@@ -2014,11 +2014,11 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -2036,7 +2036,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K31" t="n">
@@ -2067,11 +2067,11 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -2089,7 +2089,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K32" t="n">
@@ -2120,11 +2120,11 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -2142,7 +2142,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K33" t="n">
@@ -2173,11 +2173,11 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -2195,7 +2195,7 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K34" t="n">
@@ -2226,11 +2226,11 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2248,7 +2248,7 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K35" t="n">
@@ -2258,7 +2258,7 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>985</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="36">
@@ -2752,7 +2752,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -2760,7 +2760,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -2783,7 +2783,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -2814,7 +2814,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -2822,7 +2822,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -2845,7 +2845,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -2876,7 +2876,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -2884,7 +2884,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -2907,15 +2907,15 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -2929,16 +2929,16 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -2960,24 +2960,24 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -3000,7 +3000,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -3008,7 +3008,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -3062,7 +3062,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -3070,7 +3070,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -3093,15 +3093,15 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -3115,16 +3115,16 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -3132,7 +3132,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -3146,24 +3146,24 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -3194,7 +3194,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -3217,7 +3217,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -3225,7 +3225,7 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -3248,7 +3248,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -3256,7 +3256,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -3279,7 +3279,7 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -3310,7 +3310,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -3318,7 +3318,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -3341,7 +3341,7 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -3349,7 +3349,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -3430,11 +3430,11 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -3461,11 +3461,11 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -3492,11 +3492,11 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -3523,11 +3523,11 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -3554,11 +3554,11 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -3585,11 +3585,11 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -3597,7 +3597,7 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -3616,11 +3616,11 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -3647,11 +3647,11 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -3678,11 +3678,11 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -3709,11 +3709,11 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -3740,11 +3740,11 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -3771,11 +3771,11 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -3783,7 +3783,7 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -4113,19 +4113,19 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
         <v>45298</v>
       </c>
       <c r="D2" t="n">
-        <v>191</v>
+        <v>90</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -4137,13 +4137,13 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>153</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3">
@@ -4190,14 +4190,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="C4" s="2" t="n">
         <v>45298</v>
       </c>
       <c r="D4" t="n">
-        <v>15</v>
+        <v>110</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -4215,13 +4215,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>15</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -4233,7 +4233,7 @@
         <v>45298</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>191</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -4245,31 +4245,31 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>153</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C6" s="2" t="n">
         <v>45298</v>
       </c>
       <c r="D6" t="n">
-        <v>90</v>
+        <v>15</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -4287,25 +4287,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>90</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C7" s="2" t="n">
         <v>45298</v>
       </c>
       <c r="D7" t="n">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -4323,7 +4323,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>110</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/e2e_test_output_12week_forecast_test/simulation_output/module5/Module5Output_20240107.xlsx
+++ b/e2e_test_output_12week_forecast_test/simulation_output/module5/Module5Output_20240107.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M43"/>
+  <dimension ref="A1:M71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -513,21 +513,21 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -535,7 +535,7 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -545,7 +545,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K2" t="n">
@@ -555,7 +555,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1347</v>
+        <v>985</v>
       </c>
     </row>
     <row r="3">
@@ -564,21 +564,21 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -586,7 +586,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -596,7 +596,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K3" t="n">
@@ -606,7 +606,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>1347</v>
+        <v>985</v>
       </c>
     </row>
     <row r="4">
@@ -615,21 +615,21 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -637,7 +637,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -647,7 +647,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K4" t="n">
@@ -657,7 +657,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>1347</v>
+        <v>985</v>
       </c>
     </row>
     <row r="5">
@@ -666,21 +666,21 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -688,7 +688,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -698,7 +698,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K5" t="n">
@@ -708,7 +708,7 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>1347</v>
+        <v>985</v>
       </c>
     </row>
     <row r="6">
@@ -717,21 +717,21 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -749,7 +749,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K6" t="n">
@@ -759,7 +759,7 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>1347</v>
+        <v>985</v>
       </c>
     </row>
     <row r="7">
@@ -768,29 +768,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -800,7 +800,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K7" t="n">
@@ -810,7 +810,7 @@
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>1347</v>
+        <v>985</v>
       </c>
     </row>
     <row r="8">
@@ -819,29 +819,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>AO</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -851,7 +851,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K8" t="n">
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>1347</v>
+        <v>985</v>
       </c>
     </row>
     <row r="9">
@@ -870,29 +870,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>AO</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -902,7 +902,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K9" t="n">
@@ -912,7 +912,7 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>1347</v>
+        <v>985</v>
       </c>
     </row>
     <row r="10">
@@ -935,15 +935,15 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>AO</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -986,15 +986,15 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>AO</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1037,15 +1037,15 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>normal</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1079,16 +1079,16 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1106,7 +1106,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K13" t="n">
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>985</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="14">
@@ -1130,16 +1130,16 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -1147,7 +1147,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1157,7 +1157,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K14" t="n">
@@ -1167,7 +1167,7 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>985</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="15">
@@ -1181,24 +1181,24 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1208,7 +1208,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K15" t="n">
@@ -1218,7 +1218,7 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>985</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="16">
@@ -1269,7 +1269,7 @@
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>1347</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="17">
@@ -1320,7 +1320,7 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>1347</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="18">
@@ -1343,15 +1343,15 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1371,7 +1371,7 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>1347</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="19">
@@ -1394,15 +1394,15 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>AO</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1422,7 +1422,7 @@
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>1347</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="20">
@@ -1445,15 +1445,15 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>AO</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1473,7 +1473,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>1347</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="21">
@@ -1496,15 +1496,15 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>80</v>
+        <v>8</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>AO</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>80</v>
+        <v>8</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1524,7 +1524,7 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>1347</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="22">
@@ -1533,29 +1533,29 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>AO</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1565,7 +1565,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K22" t="n">
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>985</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="23">
@@ -1589,24 +1589,24 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>100</v>
+        <v>51</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>normal</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>100</v>
+        <v>51</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1616,7 +1616,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K23" t="n">
@@ -1626,272 +1626,262 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>1800</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45299</v>
+        <v>45298</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>45299</v>
+        <v>45298</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K24" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="M24" t="n">
+        <v>1403</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45300</v>
+        <v>45298</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" s="2" t="n">
-        <v>45300</v>
+        <v>45298</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K25" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
       </c>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="M25" t="n">
+        <v>1403</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45301</v>
+        <v>45298</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" s="2" t="n">
-        <v>45301</v>
+        <v>45298</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K26" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="M26" t="n">
+        <v>1403</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45302</v>
+        <v>45298</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" s="2" t="n">
-        <v>45302</v>
+        <v>45298</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K27" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="M27" t="n">
+        <v>1403</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45303</v>
+        <v>45298</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" s="2" t="n">
-        <v>45303</v>
+        <v>45298</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K28" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
       </c>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="M28" t="n">
+        <v>1403</v>
       </c>
     </row>
     <row r="29">
@@ -1900,63 +1890,63 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>net demand for safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" s="2" t="n">
-        <v>45292</v>
+        <v>45298</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K29" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>985</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45299</v>
+        <v>45298</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1965,21 +1955,21 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" s="2" t="n">
-        <v>45299</v>
+        <v>45298</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -1987,29 +1977,27 @@
         </is>
       </c>
       <c r="K30" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="M30" t="n">
+        <v>1403</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45300</v>
+        <v>45298</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -2022,7 +2010,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G31" t="n">
@@ -2032,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="I31" s="2" t="n">
-        <v>45300</v>
+        <v>45298</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
@@ -2040,29 +2028,27 @@
         </is>
       </c>
       <c r="K31" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
       </c>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="M31" t="n">
+        <v>1403</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45301</v>
+        <v>45298</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -2071,21 +2057,21 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>AO</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" s="2" t="n">
-        <v>45301</v>
+        <v>45298</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
@@ -2093,29 +2079,27 @@
         </is>
       </c>
       <c r="K32" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
       </c>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="M32" t="n">
+        <v>1403</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45302</v>
+        <v>45298</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -2124,21 +2108,21 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>AO</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" s="2" t="n">
-        <v>45302</v>
+        <v>45298</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
@@ -2146,29 +2130,27 @@
         </is>
       </c>
       <c r="K33" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="M33" t="n">
+        <v>1403</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45303</v>
+        <v>45298</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -2177,21 +2159,21 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>AO</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" s="2" t="n">
-        <v>45303</v>
+        <v>45298</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
@@ -2199,15 +2181,13 @@
         </is>
       </c>
       <c r="K34" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
       </c>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="M34" t="n">
+        <v>1403</v>
       </c>
     </row>
     <row r="35">
@@ -2216,12 +2196,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -2230,21 +2210,21 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>net demand for safety</t>
+          <t>normal</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" s="2" t="n">
-        <v>45292</v>
+        <v>45298</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
@@ -2252,13 +2232,13 @@
         </is>
       </c>
       <c r="K35" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>1347</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="36">
@@ -2272,16 +2252,16 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -2289,7 +2269,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2299,7 +2279,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K36" t="n">
@@ -2309,16 +2289,16 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>1800</v>
+        <v>985</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45299</v>
+        <v>45298</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2328,50 +2308,48 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>36</v>
+        <v>100</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" s="2" t="n">
-        <v>45299</v>
+        <v>45298</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="K37" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
       </c>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="M37" t="n">
+        <v>1740</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45300</v>
+        <v>45299</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2381,11 +2359,11 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -2393,21 +2371,21 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" s="2" t="n">
-        <v>45300</v>
+        <v>45299</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K38" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -2420,11 +2398,11 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45301</v>
+        <v>45300</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2434,11 +2412,11 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -2446,21 +2424,21 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" s="2" t="n">
-        <v>45301</v>
+        <v>45300</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K39" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -2473,11 +2451,11 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45302</v>
+        <v>45301</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2487,11 +2465,11 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -2499,21 +2477,21 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" s="2" t="n">
-        <v>45302</v>
+        <v>45301</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K40" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -2526,11 +2504,11 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45303</v>
+        <v>45302</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2540,11 +2518,11 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -2552,21 +2530,21 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" s="2" t="n">
-        <v>45303</v>
+        <v>45302</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K41" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -2579,11 +2557,11 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45304</v>
+        <v>45303</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2593,11 +2571,11 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -2605,21 +2583,21 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" s="2" t="n">
-        <v>45304</v>
+        <v>45303</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K42" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -2636,7 +2614,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2646,11 +2624,11 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -2658,7 +2636,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -2668,17 +2646,1483 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K43" t="n">
+        <v>5</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>DC_002</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>5</v>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>net demand for AO</t>
+        </is>
+      </c>
+      <c r="G44" t="n">
+        <v>50</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>DC_002</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>5</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45299</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>DC_002</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>6</v>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>net demand for AO</t>
+        </is>
+      </c>
+      <c r="G45" t="n">
+        <v>50</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" s="2" t="n">
+        <v>45299</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>DC_002</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>5</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45300</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>DC_002</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>6</v>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>net demand for AO</t>
+        </is>
+      </c>
+      <c r="G46" t="n">
+        <v>50</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" s="2" t="n">
+        <v>45300</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>DC_002</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>5</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45301</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>DC_002</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>6</v>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>net demand for AO</t>
+        </is>
+      </c>
+      <c r="G47" t="n">
+        <v>50</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" s="2" t="n">
+        <v>45301</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>DC_002</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>5</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0</v>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>DC_002</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>43</v>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>net demand for normal</t>
+        </is>
+      </c>
+      <c r="G48" t="n">
+        <v>50</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>DC_002</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>5</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0</v>
+      </c>
+      <c r="M48" t="n">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45299</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>50</v>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="G49" t="n">
+        <v>50</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" s="2" t="n">
+        <v>45299</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>5</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0</v>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45300</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>50</v>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="G50" t="n">
+        <v>50</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" s="2" t="n">
+        <v>45300</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>5</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0</v>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45301</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>42</v>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="G51" t="n">
+        <v>50</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" s="2" t="n">
+        <v>45301</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>5</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0</v>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>45302</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>50</v>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="G52" t="n">
+        <v>50</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" s="2" t="n">
+        <v>45302</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>5</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0</v>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>45303</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>50</v>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="G53" t="n">
+        <v>50</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" s="2" t="n">
+        <v>45303</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>5</v>
+      </c>
+      <c r="L53" t="n">
+        <v>0</v>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>80</v>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>net demand for safety</t>
+        </is>
+      </c>
+      <c r="G54" t="n">
+        <v>100</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" s="2" t="n">
+        <v>45292</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>5</v>
+      </c>
+      <c r="L54" t="n">
+        <v>0</v>
+      </c>
+      <c r="M54" t="n">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>8</v>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>net demand for AO</t>
+        </is>
+      </c>
+      <c r="G55" t="n">
+        <v>50</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>5</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0</v>
+      </c>
+      <c r="M55" t="n">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>45299</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>8</v>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>net demand for AO</t>
+        </is>
+      </c>
+      <c r="G56" t="n">
+        <v>50</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" s="2" t="n">
+        <v>45299</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>5</v>
+      </c>
+      <c r="L56" t="n">
+        <v>0</v>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>45300</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>8</v>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>net demand for AO</t>
+        </is>
+      </c>
+      <c r="G57" t="n">
+        <v>50</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" s="2" t="n">
+        <v>45300</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>5</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0</v>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>45301</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="E58" t="n">
+        <v>8</v>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>net demand for AO</t>
+        </is>
+      </c>
+      <c r="G58" t="n">
+        <v>50</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" s="2" t="n">
+        <v>45301</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>5</v>
+      </c>
+      <c r="L58" t="n">
+        <v>0</v>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="E59" t="n">
+        <v>51</v>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>net demand for normal</t>
+        </is>
+      </c>
+      <c r="G59" t="n">
+        <v>75</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>5</v>
+      </c>
+      <c r="L59" t="n">
+        <v>0</v>
+      </c>
+      <c r="M59" t="n">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="E60" t="n">
+        <v>80</v>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>safety</t>
+        </is>
+      </c>
+      <c r="G60" t="n">
+        <v>80</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>0</v>
+      </c>
+      <c r="L60" t="n">
+        <v>0</v>
+      </c>
+      <c r="M60" t="n">
+        <v>1740</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>45299</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>36</v>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="G61" t="n">
+        <v>40</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" s="2" t="n">
+        <v>45299</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
         <v>7</v>
       </c>
-      <c r="L43" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" t="n">
-        <v>1347</v>
+      <c r="L61" t="n">
+        <v>0</v>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>45300</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="E62" t="n">
+        <v>32</v>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="G62" t="n">
+        <v>40</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" s="2" t="n">
+        <v>45300</v>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>7</v>
+      </c>
+      <c r="L62" t="n">
+        <v>0</v>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>45301</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v>36</v>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="G63" t="n">
+        <v>40</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" s="2" t="n">
+        <v>45301</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>7</v>
+      </c>
+      <c r="L63" t="n">
+        <v>0</v>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>45302</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="E64" t="n">
+        <v>36</v>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="G64" t="n">
+        <v>40</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" s="2" t="n">
+        <v>45302</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>7</v>
+      </c>
+      <c r="L64" t="n">
+        <v>0</v>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>45303</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="E65" t="n">
+        <v>36</v>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="G65" t="n">
+        <v>40</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" s="2" t="n">
+        <v>45303</v>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>7</v>
+      </c>
+      <c r="L65" t="n">
+        <v>0</v>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>45304</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="E66" t="n">
+        <v>35</v>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="G66" t="n">
+        <v>40</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" s="2" t="n">
+        <v>45304</v>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>7</v>
+      </c>
+      <c r="L66" t="n">
+        <v>0</v>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="E67" t="n">
+        <v>50</v>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>net demand for safety</t>
+        </is>
+      </c>
+      <c r="G67" t="n">
+        <v>60</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" s="2" t="n">
+        <v>45292</v>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>7</v>
+      </c>
+      <c r="L67" t="n">
+        <v>0</v>
+      </c>
+      <c r="M67" t="n">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="E68" t="n">
+        <v>4</v>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>net demand for AO</t>
+        </is>
+      </c>
+      <c r="G68" t="n">
+        <v>40</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>7</v>
+      </c>
+      <c r="L68" t="n">
+        <v>0</v>
+      </c>
+      <c r="M68" t="n">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>45299</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="E69" t="n">
+        <v>4</v>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>net demand for AO</t>
+        </is>
+      </c>
+      <c r="G69" t="n">
+        <v>40</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" s="2" t="n">
+        <v>45299</v>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>7</v>
+      </c>
+      <c r="L69" t="n">
+        <v>0</v>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>45300</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="E70" t="n">
+        <v>4</v>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>net demand for AO</t>
+        </is>
+      </c>
+      <c r="G70" t="n">
+        <v>40</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" s="2" t="n">
+        <v>45300</v>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>7</v>
+      </c>
+      <c r="L70" t="n">
+        <v>0</v>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="E71" t="n">
+        <v>35</v>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>net demand for normal</t>
+        </is>
+      </c>
+      <c r="G71" t="n">
+        <v>40</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>7</v>
+      </c>
+      <c r="L71" t="n">
+        <v>0</v>
+      </c>
+      <c r="M71" t="n">
+        <v>1403</v>
       </c>
     </row>
   </sheetData>
@@ -2692,7 +4136,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G43"/>
+  <dimension ref="A1:G71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2743,16 +4187,16 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -2760,7 +4204,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -2774,16 +4218,16 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -2791,7 +4235,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -2805,16 +4249,16 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -2822,7 +4266,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -2836,16 +4280,16 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -2853,7 +4297,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -2867,16 +4311,16 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -2884,7 +4328,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -2898,24 +4342,24 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -2929,24 +4373,24 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>AO</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -2960,24 +4404,24 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>AO</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -3000,15 +4444,15 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>AO</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -3031,15 +4475,15 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>AO</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -3062,15 +4506,15 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>normal</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -3084,16 +4528,16 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -3101,7 +4545,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -3115,16 +4559,16 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -3132,7 +4576,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -3146,24 +4590,24 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -3248,15 +4692,15 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -3279,15 +4723,15 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>AO</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -3310,15 +4754,15 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>AO</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -3341,15 +4785,15 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>80</v>
+        <v>8</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>AO</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>80</v>
+        <v>8</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -3363,24 +4807,24 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>AO</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -3394,24 +4838,24 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>100</v>
+        <v>51</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>normal</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>100</v>
+        <v>51</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -3421,28 +4865,28 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45299</v>
+        <v>45298</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -3452,28 +4896,28 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45300</v>
+        <v>45298</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -3483,28 +4927,28 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45301</v>
+        <v>45298</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -3514,28 +4958,28 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45302</v>
+        <v>45298</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -3545,28 +4989,28 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45303</v>
+        <v>45298</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -3580,24 +5024,24 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>net demand for safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -3607,11 +5051,11 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45299</v>
+        <v>45298</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -3620,15 +5064,15 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -3638,11 +5082,11 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45300</v>
+        <v>45298</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -3655,7 +5099,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -3669,11 +5113,11 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45301</v>
+        <v>45298</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -3682,15 +5126,15 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>AO</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -3700,11 +5144,11 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45302</v>
+        <v>45298</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -3713,15 +5157,15 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>AO</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -3731,11 +5175,11 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45303</v>
+        <v>45298</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -3744,15 +5188,15 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>AO</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -3766,7 +5210,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -3775,15 +5219,15 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>net demand for safety</t>
+          <t>normal</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -3797,16 +5241,16 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -3814,7 +5258,7 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -3824,7 +5268,7 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45299</v>
+        <v>45298</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -3833,19 +5277,19 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>36</v>
+        <v>100</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -3855,7 +5299,7 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45300</v>
+        <v>45299</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -3864,11 +5308,11 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -3876,7 +5320,7 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -3886,7 +5330,7 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45301</v>
+        <v>45300</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -3895,11 +5339,11 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -3907,7 +5351,7 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -3917,7 +5361,7 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45302</v>
+        <v>45301</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -3926,11 +5370,11 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -3938,7 +5382,7 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -3948,7 +5392,7 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45303</v>
+        <v>45302</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -3957,11 +5401,11 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -3969,7 +5413,7 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -3979,7 +5423,7 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45304</v>
+        <v>45303</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -3988,11 +5432,11 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -4000,7 +5444,7 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -4019,11 +5463,11 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -4031,9 +5475,877 @@
         </is>
       </c>
       <c r="F43" t="n">
+        <v>75</v>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>supply shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>DC_002</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>5</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>net demand for AO</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>50</v>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>supply shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45299</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>DC_002</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>6</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>net demand for AO</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>50</v>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>supply shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45300</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>DC_002</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>6</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>net demand for AO</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>50</v>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>supply shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45301</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>DC_002</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>6</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>net demand for AO</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>50</v>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>supply shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>DC_002</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>43</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>net demand for normal</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>50</v>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>supply shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45299</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>50</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v>50</v>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>supply shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45300</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>50</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="F50" t="n">
+        <v>50</v>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>supply shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45301</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>42</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="F51" t="n">
+        <v>50</v>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>supply shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>45302</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>50</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="F52" t="n">
+        <v>50</v>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>supply shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>45303</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>50</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="F53" t="n">
+        <v>50</v>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>supply shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>80</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>net demand for safety</t>
+        </is>
+      </c>
+      <c r="F54" t="n">
+        <v>100</v>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>supply shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>8</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>net demand for AO</t>
+        </is>
+      </c>
+      <c r="F55" t="n">
+        <v>50</v>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>supply shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>45299</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>8</v>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>net demand for AO</t>
+        </is>
+      </c>
+      <c r="F56" t="n">
+        <v>50</v>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>supply shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>45300</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>8</v>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>net demand for AO</t>
+        </is>
+      </c>
+      <c r="F57" t="n">
+        <v>50</v>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>supply shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>45301</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>8</v>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>net demand for AO</t>
+        </is>
+      </c>
+      <c r="F58" t="n">
+        <v>50</v>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>supply shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>51</v>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>net demand for normal</t>
+        </is>
+      </c>
+      <c r="F59" t="n">
+        <v>75</v>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>supply shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>80</v>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>safety</t>
+        </is>
+      </c>
+      <c r="F60" t="n">
+        <v>80</v>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>supply shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>45299</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>36</v>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="F61" t="n">
+        <v>40</v>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>supply shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>45300</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>32</v>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="F62" t="n">
+        <v>40</v>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>supply shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>45301</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>36</v>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="F63" t="n">
+        <v>40</v>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>supply shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>45302</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>36</v>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="F64" t="n">
+        <v>40</v>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>supply shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>45303</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>36</v>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="F65" t="n">
+        <v>40</v>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>supply shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>45304</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>35</v>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="F66" t="n">
+        <v>40</v>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>supply shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>50</v>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>net demand for safety</t>
+        </is>
+      </c>
+      <c r="F67" t="n">
         <v>60</v>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>supply shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>4</v>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>net demand for AO</t>
+        </is>
+      </c>
+      <c r="F68" t="n">
+        <v>40</v>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>supply shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>45299</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>4</v>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>net demand for AO</t>
+        </is>
+      </c>
+      <c r="F69" t="n">
+        <v>40</v>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>supply shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>45300</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>4</v>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>net demand for AO</t>
+        </is>
+      </c>
+      <c r="F70" t="n">
+        <v>40</v>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>supply shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>35</v>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>net demand for normal</t>
+        </is>
+      </c>
+      <c r="F71" t="n">
+        <v>40</v>
+      </c>
+      <c r="G71" t="inlineStr">
         <is>
           <t>supply shortage</t>
         </is>
@@ -4113,19 +6425,19 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
         <v>45298</v>
       </c>
       <c r="D2" t="n">
-        <v>90</v>
+        <v>15</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -4143,25 +6455,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>90</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="C3" s="2" t="n">
         <v>45298</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -4179,25 +6491,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C4" s="2" t="n">
         <v>45298</v>
       </c>
       <c r="D4" t="n">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -4215,25 +6527,25 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>110</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C5" s="2" t="n">
         <v>45298</v>
       </c>
       <c r="D5" t="n">
-        <v>191</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -4245,31 +6557,31 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>153</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="C6" s="2" t="n">
         <v>45298</v>
       </c>
       <c r="D6" t="n">
-        <v>15</v>
+        <v>90</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -4287,13 +6599,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>15</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -4305,7 +6617,7 @@
         <v>45298</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>136</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -4317,13 +6629,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/e2e_test_output_12week_forecast_test/simulation_output/module5/Module5Output_20240107.xlsx
+++ b/e2e_test_output_12week_forecast_test/simulation_output/module5/Module5Output_20240107.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M71"/>
+  <dimension ref="A1:M62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,16 +518,16 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -535,7 +535,7 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -545,7 +545,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K2" t="n">
@@ -555,7 +555,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>985</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="3">
@@ -569,16 +569,16 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -586,7 +586,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -596,7 +596,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K3" t="n">
@@ -606,7 +606,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>985</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="4">
@@ -620,16 +620,16 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -637,7 +637,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -647,7 +647,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K4" t="n">
@@ -657,7 +657,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>985</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="5">
@@ -671,16 +671,16 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -688,7 +688,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -698,7 +698,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K5" t="n">
@@ -708,7 +708,7 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>985</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="6">
@@ -722,24 +722,24 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -749,7 +749,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K6" t="n">
@@ -759,7 +759,7 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>985</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="7">
@@ -773,24 +773,24 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>AO</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -800,7 +800,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K7" t="n">
@@ -810,7 +810,7 @@
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>985</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="8">
@@ -824,16 +824,16 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -841,7 +841,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -851,7 +851,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K8" t="n">
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>985</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="9">
@@ -875,16 +875,16 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -892,7 +892,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -902,7 +902,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K9" t="n">
@@ -912,7 +912,7 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>985</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="10">
@@ -926,16 +926,16 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -943,7 +943,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -953,7 +953,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K10" t="n">
@@ -963,7 +963,7 @@
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>985</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="11">
@@ -977,24 +977,24 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>AO</t>
+          <t>normal</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1004,7 +1004,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K11" t="n">
@@ -1014,7 +1014,7 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>985</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="12">
@@ -1023,29 +1023,29 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1055,7 +1055,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K12" t="n">
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>985</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="13">
@@ -1074,7 +1074,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1088,7 +1088,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>1403</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="14">
@@ -1125,7 +1125,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1139,7 +1139,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -1147,7 +1147,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1167,7 +1167,7 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>1403</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="15">
@@ -1176,7 +1176,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1190,7 +1190,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -1198,7 +1198,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1218,7 +1218,7 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>1403</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="16">
@@ -1227,7 +1227,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1245,7 +1245,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G16" t="n">
@@ -1269,7 +1269,7 @@
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>1403</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="17">
@@ -1278,7 +1278,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1292,15 +1292,15 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>AO</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1320,7 +1320,7 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>1403</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="18">
@@ -1329,7 +1329,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1343,15 +1343,15 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>80</v>
+        <v>4</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>AO</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>80</v>
+        <v>4</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1371,7 +1371,7 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>1403</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="19">
@@ -1380,7 +1380,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1394,7 +1394,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -1402,7 +1402,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1422,7 +1422,7 @@
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>1403</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="20">
@@ -1431,7 +1431,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1445,15 +1445,15 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>AO</t>
+          <t>normal</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1473,7 +1473,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>1403</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="21">
@@ -1487,24 +1487,24 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>AO</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1514,7 +1514,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K21" t="n">
@@ -1524,7 +1524,7 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>1403</v>
+        <v>985</v>
       </c>
     </row>
     <row r="22">
@@ -1538,24 +1538,24 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>AO</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1565,7 +1565,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K22" t="n">
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>1403</v>
+        <v>985</v>
       </c>
     </row>
     <row r="23">
@@ -1589,24 +1589,24 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1616,7 +1616,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K23" t="n">
@@ -1626,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>1403</v>
+        <v>985</v>
       </c>
     </row>
     <row r="24">
@@ -1635,21 +1635,21 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -1657,7 +1657,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1667,7 +1667,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K24" t="n">
@@ -1677,7 +1677,7 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>1403</v>
+        <v>985</v>
       </c>
     </row>
     <row r="25">
@@ -1686,29 +1686,29 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1718,7 +1718,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K25" t="n">
@@ -1728,7 +1728,7 @@
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>1403</v>
+        <v>985</v>
       </c>
     </row>
     <row r="26">
@@ -1737,29 +1737,29 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>AO</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1769,7 +1769,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K26" t="n">
@@ -1779,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>1403</v>
+        <v>985</v>
       </c>
     </row>
     <row r="27">
@@ -1788,29 +1788,29 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>AO</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1820,7 +1820,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K27" t="n">
@@ -1830,7 +1830,7 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>1403</v>
+        <v>985</v>
       </c>
     </row>
     <row r="28">
@@ -1839,29 +1839,29 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>AO</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1871,7 +1871,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K28" t="n">
@@ -1881,7 +1881,7 @@
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>1403</v>
+        <v>985</v>
       </c>
     </row>
     <row r="29">
@@ -1890,29 +1890,29 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>AO</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1922,7 +1922,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K29" t="n">
@@ -1932,7 +1932,7 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>1403</v>
+        <v>985</v>
       </c>
     </row>
     <row r="30">
@@ -1941,29 +1941,29 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>normal</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K30" t="n">
@@ -1983,7 +1983,7 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>1403</v>
+        <v>985</v>
       </c>
     </row>
     <row r="31">
@@ -1997,16 +1997,16 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -2014,7 +2014,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2024,7 +2024,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K31" t="n">
@@ -2034,7 +2034,7 @@
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>1403</v>
+        <v>985</v>
       </c>
     </row>
     <row r="32">
@@ -2043,29 +2043,29 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>AO</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2075,7 +2075,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="K32" t="n">
@@ -2085,21 +2085,21 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>1403</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45298</v>
+        <v>45299</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -2108,49 +2108,51 @@
         </is>
       </c>
       <c r="E33" t="n">
+        <v>50</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>50</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" s="2" t="n">
+        <v>45299</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>4</v>
       </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>AO</t>
-        </is>
-      </c>
-      <c r="G33" t="n">
-        <v>4</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" s="2" t="n">
-        <v>45298</v>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>DC_001</t>
-        </is>
-      </c>
-      <c r="K33" t="n">
-        <v>0</v>
-      </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
-      <c r="M33" t="n">
-        <v>1403</v>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45298</v>
+        <v>45300</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -2159,49 +2161,51 @@
         </is>
       </c>
       <c r="E34" t="n">
+        <v>50</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v>50</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" s="2" t="n">
+        <v>45300</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>4</v>
       </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>AO</t>
-        </is>
-      </c>
-      <c r="G34" t="n">
-        <v>4</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" s="2" t="n">
-        <v>45298</v>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>DC_001</t>
-        </is>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
       <c r="L34" t="n">
         <v>0</v>
       </c>
-      <c r="M34" t="n">
-        <v>1403</v>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45298</v>
+        <v>45301</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -2210,21 +2214,21 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>net demand for forecast</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" s="2" t="n">
-        <v>45298</v>
+        <v>45301</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
@@ -2232,64 +2236,68 @@
         </is>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
       </c>
-      <c r="M35" t="n">
-        <v>1403</v>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45298</v>
+        <v>45302</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>net demand for forecast</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" s="2" t="n">
-        <v>45298</v>
+        <v>45302</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
-      <c r="M36" t="n">
-        <v>985</v>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="37">
@@ -2308,15 +2316,15 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>net demand for safety</t>
         </is>
       </c>
       <c r="G37" t="n">
@@ -2326,26 +2334,26 @@
         <v>0</v>
       </c>
       <c r="I37" s="2" t="n">
-        <v>45298</v>
+        <v>45292</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>1740</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45299</v>
+        <v>45298</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -2359,15 +2367,15 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>net demand for AO</t>
         </is>
       </c>
       <c r="G38" t="n">
@@ -2377,28 +2385,26 @@
         <v>0</v>
       </c>
       <c r="I38" s="2" t="n">
-        <v>45299</v>
+        <v>45298</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
       </c>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="M38" t="n">
+        <v>1389</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45300</v>
+        <v>45299</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -2412,15 +2418,15 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>net demand for AO</t>
         </is>
       </c>
       <c r="G39" t="n">
@@ -2430,15 +2436,15 @@
         <v>0</v>
       </c>
       <c r="I39" s="2" t="n">
-        <v>45300</v>
+        <v>45299</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K39" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -2451,7 +2457,7 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45301</v>
+        <v>45300</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -2465,15 +2471,15 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>net demand for AO</t>
         </is>
       </c>
       <c r="G40" t="n">
@@ -2483,15 +2489,15 @@
         <v>0</v>
       </c>
       <c r="I40" s="2" t="n">
-        <v>45301</v>
+        <v>45300</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -2504,7 +2510,7 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45302</v>
+        <v>45301</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -2518,15 +2524,15 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>net demand for AO</t>
         </is>
       </c>
       <c r="G41" t="n">
@@ -2536,15 +2542,15 @@
         <v>0</v>
       </c>
       <c r="I41" s="2" t="n">
-        <v>45302</v>
+        <v>45301</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K41" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -2557,7 +2563,7 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45303</v>
+        <v>45298</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -2571,46 +2577,44 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>net demand for normal</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" s="2" t="n">
-        <v>45303</v>
+        <v>45298</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="M42" t="n">
+        <v>1389</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45298</v>
+        <v>45299</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -2628,21 +2632,21 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>net demand for safety</t>
+          <t>net demand for forecast</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" s="2" t="n">
-        <v>45292</v>
+        <v>45299</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
@@ -2650,18 +2654,20 @@
         </is>
       </c>
       <c r="K43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
       </c>
-      <c r="M43" t="n">
-        <v>985</v>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45298</v>
+        <v>45300</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -2679,11 +2685,11 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>net demand for AO</t>
+          <t>net demand for forecast</t>
         </is>
       </c>
       <c r="G44" t="n">
@@ -2693,7 +2699,7 @@
         <v>0</v>
       </c>
       <c r="I44" s="2" t="n">
-        <v>45298</v>
+        <v>45300</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
@@ -2701,18 +2707,20 @@
         </is>
       </c>
       <c r="K44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
       </c>
-      <c r="M44" t="n">
-        <v>985</v>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45299</v>
+        <v>45301</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -2730,11 +2738,11 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>net demand for AO</t>
+          <t>net demand for forecast</t>
         </is>
       </c>
       <c r="G45" t="n">
@@ -2744,7 +2752,7 @@
         <v>0</v>
       </c>
       <c r="I45" s="2" t="n">
-        <v>45299</v>
+        <v>45301</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
@@ -2752,7 +2760,7 @@
         </is>
       </c>
       <c r="K45" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -2765,7 +2773,7 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45300</v>
+        <v>45302</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -2783,11 +2791,11 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>net demand for AO</t>
+          <t>net demand for forecast</t>
         </is>
       </c>
       <c r="G46" t="n">
@@ -2797,7 +2805,7 @@
         <v>0</v>
       </c>
       <c r="I46" s="2" t="n">
-        <v>45300</v>
+        <v>45302</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
@@ -2805,7 +2813,7 @@
         </is>
       </c>
       <c r="K46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -2818,7 +2826,7 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45301</v>
+        <v>45298</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -2836,21 +2844,21 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>net demand for AO</t>
+          <t>net demand for safety</t>
         </is>
       </c>
       <c r="G47" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
       </c>
       <c r="I47" s="2" t="n">
-        <v>45301</v>
+        <v>45292</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
@@ -2858,15 +2866,13 @@
         </is>
       </c>
       <c r="K47" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L47" t="n">
         <v>0</v>
       </c>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="M47" t="n">
+        <v>985</v>
       </c>
     </row>
     <row r="48">
@@ -2889,11 +2895,11 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>net demand for normal</t>
+          <t>net demand for AO</t>
         </is>
       </c>
       <c r="G48" t="n">
@@ -2911,7 +2917,7 @@
         </is>
       </c>
       <c r="K48" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L48" t="n">
         <v>0</v>
@@ -2936,15 +2942,15 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>net demand for AO</t>
         </is>
       </c>
       <c r="G49" t="n">
@@ -2958,11 +2964,11 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K49" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L49" t="n">
         <v>0</v>
@@ -2989,15 +2995,15 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>net demand for AO</t>
         </is>
       </c>
       <c r="G50" t="n">
@@ -3011,11 +3017,11 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K50" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L50" t="n">
         <v>0</v>
@@ -3042,15 +3048,15 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>net demand for AO</t>
         </is>
       </c>
       <c r="G51" t="n">
@@ -3064,11 +3070,11 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K51" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L51" t="n">
         <v>0</v>
@@ -3081,7 +3087,7 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>45302</v>
+        <v>45298</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -3095,15 +3101,15 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>net demand for normal</t>
         </is>
       </c>
       <c r="G52" t="n">
@@ -3113,32 +3119,30 @@
         <v>0</v>
       </c>
       <c r="I52" s="2" t="n">
-        <v>45302</v>
+        <v>45298</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K52" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L52" t="n">
         <v>0</v>
       </c>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="M52" t="n">
+        <v>985</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>45303</v>
+        <v>45298</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -3148,50 +3152,48 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G53" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
       </c>
       <c r="I53" s="2" t="n">
-        <v>45303</v>
+        <v>45298</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="K53" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L53" t="n">
         <v>0</v>
       </c>
-      <c r="M53" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="M53" t="n">
+        <v>1700</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>45298</v>
+        <v>45299</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -3205,21 +3207,21 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>80</v>
+        <v>36</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>net demand for safety</t>
+          <t>net demand for forecast</t>
         </is>
       </c>
       <c r="G54" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
       </c>
       <c r="I54" s="2" t="n">
-        <v>45292</v>
+        <v>45299</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
@@ -3227,22 +3229,24 @@
         </is>
       </c>
       <c r="K54" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L54" t="n">
         <v>0</v>
       </c>
-      <c r="M54" t="n">
-        <v>1403</v>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>45298</v>
+        <v>45300</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -3256,21 +3260,21 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>net demand for AO</t>
+          <t>net demand for forecast</t>
         </is>
       </c>
       <c r="G55" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
       </c>
       <c r="I55" s="2" t="n">
-        <v>45298</v>
+        <v>45300</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
@@ -3278,22 +3282,24 @@
         </is>
       </c>
       <c r="K55" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L55" t="n">
         <v>0</v>
       </c>
-      <c r="M55" t="n">
-        <v>1403</v>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>45299</v>
+        <v>45301</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3307,21 +3313,21 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>net demand for AO</t>
+          <t>net demand for forecast</t>
         </is>
       </c>
       <c r="G56" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
       </c>
       <c r="I56" s="2" t="n">
-        <v>45299</v>
+        <v>45301</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
@@ -3329,7 +3335,7 @@
         </is>
       </c>
       <c r="K56" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L56" t="n">
         <v>0</v>
@@ -3342,11 +3348,11 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>45300</v>
+        <v>45302</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3360,21 +3366,21 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>net demand for AO</t>
+          <t>net demand for forecast</t>
         </is>
       </c>
       <c r="G57" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
       </c>
       <c r="I57" s="2" t="n">
-        <v>45300</v>
+        <v>45302</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
@@ -3382,7 +3388,7 @@
         </is>
       </c>
       <c r="K57" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L57" t="n">
         <v>0</v>
@@ -3395,11 +3401,11 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>45301</v>
+        <v>45298</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3413,21 +3419,21 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>net demand for AO</t>
+          <t>net demand for safety</t>
         </is>
       </c>
       <c r="G58" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
       </c>
       <c r="I58" s="2" t="n">
-        <v>45301</v>
+        <v>45292</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
@@ -3435,15 +3441,13 @@
         </is>
       </c>
       <c r="K58" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L58" t="n">
         <v>0</v>
       </c>
-      <c r="M58" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="M58" t="n">
+        <v>1389</v>
       </c>
     </row>
     <row r="59">
@@ -3452,7 +3456,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3466,15 +3470,15 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>51</v>
+        <v>4</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>net demand for normal</t>
+          <t>net demand for AO</t>
         </is>
       </c>
       <c r="G59" t="n">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -3488,18 +3492,18 @@
         </is>
       </c>
       <c r="K59" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L59" t="n">
         <v>0</v>
       </c>
       <c r="M59" t="n">
-        <v>1403</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>45298</v>
+        <v>45299</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -3513,44 +3517,46 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>80</v>
+        <v>4</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>net demand for AO</t>
         </is>
       </c>
       <c r="G60" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
       </c>
       <c r="I60" s="2" t="n">
-        <v>45298</v>
+        <v>45299</v>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K60" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L60" t="n">
         <v>0</v>
       </c>
-      <c r="M60" t="n">
-        <v>1740</v>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>45299</v>
+        <v>45300</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
@@ -3568,11 +3574,11 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>net demand for AO</t>
         </is>
       </c>
       <c r="G61" t="n">
@@ -3582,7 +3588,7 @@
         <v>0</v>
       </c>
       <c r="I61" s="2" t="n">
-        <v>45299</v>
+        <v>45300</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
@@ -3590,7 +3596,7 @@
         </is>
       </c>
       <c r="K61" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="L61" t="n">
         <v>0</v>
@@ -3603,7 +3609,7 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>45300</v>
+        <v>45298</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
@@ -3621,11 +3627,11 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>net demand for normal</t>
         </is>
       </c>
       <c r="G62" t="n">
@@ -3635,7 +3641,7 @@
         <v>0</v>
       </c>
       <c r="I62" s="2" t="n">
-        <v>45300</v>
+        <v>45298</v>
       </c>
       <c r="J62" t="inlineStr">
         <is>
@@ -3643,486 +3649,13 @@
         </is>
       </c>
       <c r="K62" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="L62" t="n">
         <v>0</v>
       </c>
-      <c r="M62" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="2" t="n">
-        <v>45301</v>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>MAT_B</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>PLANT_001</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>DC_001</t>
-        </is>
-      </c>
-      <c r="E63" t="n">
-        <v>36</v>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>net demand for forecast</t>
-        </is>
-      </c>
-      <c r="G63" t="n">
-        <v>40</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" s="2" t="n">
-        <v>45301</v>
-      </c>
-      <c r="J63" t="inlineStr">
-        <is>
-          <t>DC_001</t>
-        </is>
-      </c>
-      <c r="K63" t="n">
-        <v>7</v>
-      </c>
-      <c r="L63" t="n">
-        <v>0</v>
-      </c>
-      <c r="M63" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="2" t="n">
-        <v>45302</v>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>MAT_B</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>PLANT_001</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>DC_001</t>
-        </is>
-      </c>
-      <c r="E64" t="n">
-        <v>36</v>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>net demand for forecast</t>
-        </is>
-      </c>
-      <c r="G64" t="n">
-        <v>40</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" s="2" t="n">
-        <v>45302</v>
-      </c>
-      <c r="J64" t="inlineStr">
-        <is>
-          <t>DC_001</t>
-        </is>
-      </c>
-      <c r="K64" t="n">
-        <v>7</v>
-      </c>
-      <c r="L64" t="n">
-        <v>0</v>
-      </c>
-      <c r="M64" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="2" t="n">
-        <v>45303</v>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>MAT_B</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>PLANT_001</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>DC_001</t>
-        </is>
-      </c>
-      <c r="E65" t="n">
-        <v>36</v>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>net demand for forecast</t>
-        </is>
-      </c>
-      <c r="G65" t="n">
-        <v>40</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" s="2" t="n">
-        <v>45303</v>
-      </c>
-      <c r="J65" t="inlineStr">
-        <is>
-          <t>DC_001</t>
-        </is>
-      </c>
-      <c r="K65" t="n">
-        <v>7</v>
-      </c>
-      <c r="L65" t="n">
-        <v>0</v>
-      </c>
-      <c r="M65" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="2" t="n">
-        <v>45304</v>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>MAT_B</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>PLANT_001</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>DC_001</t>
-        </is>
-      </c>
-      <c r="E66" t="n">
-        <v>35</v>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>net demand for forecast</t>
-        </is>
-      </c>
-      <c r="G66" t="n">
-        <v>40</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" s="2" t="n">
-        <v>45304</v>
-      </c>
-      <c r="J66" t="inlineStr">
-        <is>
-          <t>DC_001</t>
-        </is>
-      </c>
-      <c r="K66" t="n">
-        <v>7</v>
-      </c>
-      <c r="L66" t="n">
-        <v>0</v>
-      </c>
-      <c r="M66" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="2" t="n">
-        <v>45298</v>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>MAT_B</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>PLANT_001</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>DC_001</t>
-        </is>
-      </c>
-      <c r="E67" t="n">
-        <v>50</v>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>net demand for safety</t>
-        </is>
-      </c>
-      <c r="G67" t="n">
-        <v>60</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" s="2" t="n">
-        <v>45292</v>
-      </c>
-      <c r="J67" t="inlineStr">
-        <is>
-          <t>DC_001</t>
-        </is>
-      </c>
-      <c r="K67" t="n">
-        <v>7</v>
-      </c>
-      <c r="L67" t="n">
-        <v>0</v>
-      </c>
-      <c r="M67" t="n">
-        <v>1403</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="2" t="n">
-        <v>45298</v>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>MAT_B</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>PLANT_001</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>DC_001</t>
-        </is>
-      </c>
-      <c r="E68" t="n">
-        <v>4</v>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>net demand for AO</t>
-        </is>
-      </c>
-      <c r="G68" t="n">
-        <v>40</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" s="2" t="n">
-        <v>45298</v>
-      </c>
-      <c r="J68" t="inlineStr">
-        <is>
-          <t>DC_001</t>
-        </is>
-      </c>
-      <c r="K68" t="n">
-        <v>7</v>
-      </c>
-      <c r="L68" t="n">
-        <v>0</v>
-      </c>
-      <c r="M68" t="n">
-        <v>1403</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="2" t="n">
-        <v>45299</v>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>MAT_B</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>PLANT_001</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>DC_001</t>
-        </is>
-      </c>
-      <c r="E69" t="n">
-        <v>4</v>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>net demand for AO</t>
-        </is>
-      </c>
-      <c r="G69" t="n">
-        <v>40</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" s="2" t="n">
-        <v>45299</v>
-      </c>
-      <c r="J69" t="inlineStr">
-        <is>
-          <t>DC_001</t>
-        </is>
-      </c>
-      <c r="K69" t="n">
-        <v>7</v>
-      </c>
-      <c r="L69" t="n">
-        <v>0</v>
-      </c>
-      <c r="M69" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="2" t="n">
-        <v>45300</v>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>MAT_B</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>PLANT_001</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>DC_001</t>
-        </is>
-      </c>
-      <c r="E70" t="n">
-        <v>4</v>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>net demand for AO</t>
-        </is>
-      </c>
-      <c r="G70" t="n">
-        <v>40</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" s="2" t="n">
-        <v>45300</v>
-      </c>
-      <c r="J70" t="inlineStr">
-        <is>
-          <t>DC_001</t>
-        </is>
-      </c>
-      <c r="K70" t="n">
-        <v>7</v>
-      </c>
-      <c r="L70" t="n">
-        <v>0</v>
-      </c>
-      <c r="M70" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="2" t="n">
-        <v>45298</v>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>MAT_B</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>PLANT_001</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>DC_001</t>
-        </is>
-      </c>
-      <c r="E71" t="n">
-        <v>35</v>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>net demand for normal</t>
-        </is>
-      </c>
-      <c r="G71" t="n">
-        <v>40</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" s="2" t="n">
-        <v>45298</v>
-      </c>
-      <c r="J71" t="inlineStr">
-        <is>
-          <t>DC_001</t>
-        </is>
-      </c>
-      <c r="K71" t="n">
-        <v>7</v>
-      </c>
-      <c r="L71" t="n">
-        <v>0</v>
-      </c>
-      <c r="M71" t="n">
-        <v>1403</v>
+      <c r="M62" t="n">
+        <v>1389</v>
       </c>
     </row>
   </sheetData>
@@ -4136,7 +3669,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G71"/>
+  <dimension ref="A1:G62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4187,16 +3720,16 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -4204,7 +3737,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -4218,16 +3751,16 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -4235,7 +3768,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -4249,16 +3782,16 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -4266,7 +3799,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -4280,16 +3813,16 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -4297,7 +3830,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -4311,24 +3844,24 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -4342,24 +3875,24 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>AO</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -4373,16 +3906,16 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -4390,7 +3923,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -4404,16 +3937,16 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -4421,7 +3954,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -4435,16 +3968,16 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -4452,7 +3985,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -4466,24 +3999,24 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>AO</t>
+          <t>normal</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -4497,24 +4030,24 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -4537,7 +4070,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -4545,7 +4078,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -4568,7 +4101,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -4576,7 +4109,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -4599,7 +4132,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -4607,7 +4140,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -4634,7 +4167,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -4661,15 +4194,15 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>AO</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -4692,15 +4225,15 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>80</v>
+        <v>4</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>AO</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>80</v>
+        <v>4</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -4723,7 +4256,7 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -4731,7 +4264,7 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -4754,15 +4287,15 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>AO</t>
+          <t>normal</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -4776,24 +4309,24 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>AO</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -4807,24 +4340,24 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>AO</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -4838,24 +4371,24 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -4869,16 +4402,16 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -4886,7 +4419,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -4900,24 +4433,24 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -4931,24 +4464,24 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>AO</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -4962,24 +4495,24 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>AO</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -4993,24 +4526,24 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>AO</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -5024,24 +4557,24 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>AO</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -5055,24 +4588,24 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>normal</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -5086,16 +4619,16 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -5103,7 +4636,7 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -5117,24 +4650,24 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>AO</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -5144,11 +4677,11 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45298</v>
+        <v>45299</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -5157,15 +4690,15 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>AO</t>
+          <t>net demand for forecast</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -5175,11 +4708,11 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45298</v>
+        <v>45300</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -5188,15 +4721,15 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>AO</t>
+          <t>net demand for forecast</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -5206,11 +4739,11 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45298</v>
+        <v>45301</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -5219,15 +4752,15 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>net demand for forecast</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -5237,28 +4770,28 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45298</v>
+        <v>45302</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>net demand for forecast</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -5277,15 +4810,15 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>net demand for safety</t>
         </is>
       </c>
       <c r="F37" t="n">
@@ -5299,7 +4832,7 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45299</v>
+        <v>45298</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -5308,15 +4841,15 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>net demand for AO</t>
         </is>
       </c>
       <c r="F38" t="n">
@@ -5330,7 +4863,7 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45300</v>
+        <v>45299</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -5339,15 +4872,15 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>net demand for AO</t>
         </is>
       </c>
       <c r="F39" t="n">
@@ -5361,7 +4894,7 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45301</v>
+        <v>45300</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -5370,15 +4903,15 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>net demand for AO</t>
         </is>
       </c>
       <c r="F40" t="n">
@@ -5392,7 +4925,7 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45302</v>
+        <v>45301</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -5401,15 +4934,15 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>net demand for AO</t>
         </is>
       </c>
       <c r="F41" t="n">
@@ -5423,7 +4956,7 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45303</v>
+        <v>45298</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -5432,19 +4965,19 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>net demand for normal</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -5454,7 +4987,7 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45298</v>
+        <v>45299</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -5467,15 +5000,15 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>net demand for safety</t>
+          <t>net demand for forecast</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -5485,7 +5018,7 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45298</v>
+        <v>45300</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -5498,11 +5031,11 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>net demand for AO</t>
+          <t>net demand for forecast</t>
         </is>
       </c>
       <c r="F44" t="n">
@@ -5516,7 +5049,7 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45299</v>
+        <v>45301</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -5529,11 +5062,11 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>net demand for AO</t>
+          <t>net demand for forecast</t>
         </is>
       </c>
       <c r="F45" t="n">
@@ -5547,7 +5080,7 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45300</v>
+        <v>45302</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -5560,11 +5093,11 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>net demand for AO</t>
+          <t>net demand for forecast</t>
         </is>
       </c>
       <c r="F46" t="n">
@@ -5578,7 +5111,7 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45301</v>
+        <v>45298</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -5591,15 +5124,15 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>net demand for AO</t>
+          <t>net demand for safety</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -5622,11 +5155,11 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>net demand for normal</t>
+          <t>net demand for AO</t>
         </is>
       </c>
       <c r="F48" t="n">
@@ -5649,15 +5182,15 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>net demand for AO</t>
         </is>
       </c>
       <c r="F49" t="n">
@@ -5680,15 +5213,15 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>net demand for AO</t>
         </is>
       </c>
       <c r="F50" t="n">
@@ -5711,15 +5244,15 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>net demand for AO</t>
         </is>
       </c>
       <c r="F51" t="n">
@@ -5733,7 +5266,7 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>45302</v>
+        <v>45298</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -5742,15 +5275,15 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>net demand for normal</t>
         </is>
       </c>
       <c r="F52" t="n">
@@ -5764,7 +5297,7 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>45303</v>
+        <v>45298</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -5773,19 +5306,19 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
@@ -5795,7 +5328,7 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>45298</v>
+        <v>45299</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -5808,15 +5341,15 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>80</v>
+        <v>36</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>net demand for safety</t>
+          <t>net demand for forecast</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -5826,7 +5359,7 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>45298</v>
+        <v>45300</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -5839,15 +5372,15 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>net demand for AO</t>
+          <t>net demand for forecast</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -5857,7 +5390,7 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>45299</v>
+        <v>45301</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -5870,15 +5403,15 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>net demand for AO</t>
+          <t>net demand for forecast</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
@@ -5888,7 +5421,7 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>45300</v>
+        <v>45302</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -5901,15 +5434,15 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>net demand for AO</t>
+          <t>net demand for forecast</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
@@ -5919,7 +5452,7 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>45301</v>
+        <v>45298</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -5932,15 +5465,15 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>net demand for AO</t>
+          <t>net demand for safety</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
@@ -5963,15 +5496,15 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>51</v>
+        <v>4</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>net demand for normal</t>
+          <t>net demand for AO</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
@@ -5981,7 +5514,7 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>45298</v>
+        <v>45299</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -5990,19 +5523,19 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>80</v>
+        <v>4</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>net demand for AO</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
@@ -6012,7 +5545,7 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>45299</v>
+        <v>45300</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
@@ -6025,11 +5558,11 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>net demand for AO</t>
         </is>
       </c>
       <c r="F61" t="n">
@@ -6043,7 +5576,7 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>45300</v>
+        <v>45298</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
@@ -6056,296 +5589,17 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>net demand for normal</t>
         </is>
       </c>
       <c r="F62" t="n">
         <v>40</v>
       </c>
       <c r="G62" t="inlineStr">
-        <is>
-          <t>supply shortage</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="2" t="n">
-        <v>45301</v>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>PLANT_001</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>DC_001</t>
-        </is>
-      </c>
-      <c r="D63" t="n">
-        <v>36</v>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>net demand for forecast</t>
-        </is>
-      </c>
-      <c r="F63" t="n">
-        <v>40</v>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>supply shortage</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="2" t="n">
-        <v>45302</v>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>PLANT_001</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>DC_001</t>
-        </is>
-      </c>
-      <c r="D64" t="n">
-        <v>36</v>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>net demand for forecast</t>
-        </is>
-      </c>
-      <c r="F64" t="n">
-        <v>40</v>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>supply shortage</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="2" t="n">
-        <v>45303</v>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>PLANT_001</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>DC_001</t>
-        </is>
-      </c>
-      <c r="D65" t="n">
-        <v>36</v>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>net demand for forecast</t>
-        </is>
-      </c>
-      <c r="F65" t="n">
-        <v>40</v>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>supply shortage</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="2" t="n">
-        <v>45304</v>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>PLANT_001</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>DC_001</t>
-        </is>
-      </c>
-      <c r="D66" t="n">
-        <v>35</v>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>net demand for forecast</t>
-        </is>
-      </c>
-      <c r="F66" t="n">
-        <v>40</v>
-      </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>supply shortage</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="2" t="n">
-        <v>45298</v>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>PLANT_001</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>DC_001</t>
-        </is>
-      </c>
-      <c r="D67" t="n">
-        <v>50</v>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>net demand for safety</t>
-        </is>
-      </c>
-      <c r="F67" t="n">
-        <v>60</v>
-      </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>supply shortage</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="2" t="n">
-        <v>45298</v>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>PLANT_001</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>DC_001</t>
-        </is>
-      </c>
-      <c r="D68" t="n">
-        <v>4</v>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>net demand for AO</t>
-        </is>
-      </c>
-      <c r="F68" t="n">
-        <v>40</v>
-      </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>supply shortage</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="2" t="n">
-        <v>45299</v>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>PLANT_001</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>DC_001</t>
-        </is>
-      </c>
-      <c r="D69" t="n">
-        <v>4</v>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>net demand for AO</t>
-        </is>
-      </c>
-      <c r="F69" t="n">
-        <v>40</v>
-      </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>supply shortage</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="2" t="n">
-        <v>45300</v>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>PLANT_001</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>DC_001</t>
-        </is>
-      </c>
-      <c r="D70" t="n">
-        <v>4</v>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>net demand for AO</t>
-        </is>
-      </c>
-      <c r="F70" t="n">
-        <v>40</v>
-      </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>supply shortage</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="2" t="n">
-        <v>45298</v>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>PLANT_001</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>DC_001</t>
-        </is>
-      </c>
-      <c r="D71" t="n">
-        <v>35</v>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>net demand for normal</t>
-        </is>
-      </c>
-      <c r="F71" t="n">
-        <v>40</v>
-      </c>
-      <c r="G71" t="inlineStr">
         <is>
           <t>supply shortage</t>
         </is>
@@ -6430,14 +5684,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
         <v>45298</v>
       </c>
       <c r="D2" t="n">
-        <v>15</v>
+        <v>150</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -6449,19 +5703,19 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>15</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -6473,7 +5727,7 @@
         <v>45298</v>
       </c>
       <c r="D3" t="n">
-        <v>170</v>
+        <v>100</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -6491,25 +5745,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>170</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="C4" s="2" t="n">
         <v>45298</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -6527,7 +5781,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5">
@@ -6538,7 +5792,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C5" s="2" t="n">
@@ -6574,14 +5828,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C6" s="2" t="n">
         <v>45298</v>
       </c>
       <c r="D6" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -6599,7 +5853,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -6610,14 +5864,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C7" s="2" t="n">
         <v>45298</v>
       </c>
       <c r="D7" t="n">
-        <v>136</v>
+        <v>15</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -6629,13 +5883,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>97</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/e2e_test_output_12week_forecast_test/simulation_output/module5/Module5Output_20240107.xlsx
+++ b/e2e_test_output_12week_forecast_test/simulation_output/module5/Module5Output_20240107.xlsx
@@ -555,7 +555,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1389</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="3">
@@ -606,7 +606,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>1389</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="4">
@@ -657,7 +657,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>1389</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="5">
@@ -708,7 +708,7 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>1389</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="6">
@@ -759,7 +759,7 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>1389</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="7">
@@ -810,7 +810,7 @@
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>1389</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="8">
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>1389</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="9">
@@ -912,7 +912,7 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>1389</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="10">
@@ -963,7 +963,7 @@
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>1389</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="11">
@@ -1014,7 +1014,7 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>1389</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="12">
@@ -1028,24 +1028,24 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1055,7 +1055,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K12" t="n">
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>1389</v>
+        <v>795</v>
       </c>
     </row>
     <row r="13">
@@ -1088,7 +1088,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>1389</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="14">
@@ -1139,7 +1139,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -1147,7 +1147,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1167,7 +1167,7 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>1389</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="15">
@@ -1218,7 +1218,7 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>1389</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="16">
@@ -1241,15 +1241,15 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1269,7 +1269,7 @@
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>1389</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="17">
@@ -1292,15 +1292,15 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>AO</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1320,7 +1320,7 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>1389</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="18">
@@ -1371,7 +1371,7 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>1389</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="19">
@@ -1422,7 +1422,7 @@
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>1389</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="20">
@@ -1445,15 +1445,15 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>AO</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1473,7 +1473,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>1389</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="21">
@@ -1482,49 +1482,49 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>normal</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="I21" s="2" t="n">
         <v>45298</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="M21" t="n">
-        <v>985</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="22">
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>985</v>
+        <v>795</v>
       </c>
     </row>
     <row r="23">
@@ -1598,7 +1598,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1626,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>985</v>
+        <v>795</v>
       </c>
     </row>
     <row r="24">
@@ -1649,7 +1649,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -1657,7 +1657,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1677,7 +1677,7 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>985</v>
+        <v>795</v>
       </c>
     </row>
     <row r="25">
@@ -1700,15 +1700,15 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1728,7 +1728,7 @@
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>985</v>
+        <v>795</v>
       </c>
     </row>
     <row r="26">
@@ -1751,15 +1751,15 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>AO</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1779,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>985</v>
+        <v>795</v>
       </c>
     </row>
     <row r="27">
@@ -1830,7 +1830,7 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>985</v>
+        <v>795</v>
       </c>
     </row>
     <row r="28">
@@ -1853,7 +1853,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -1861,7 +1861,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1881,7 +1881,7 @@
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>985</v>
+        <v>795</v>
       </c>
     </row>
     <row r="29">
@@ -1932,7 +1932,7 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>985</v>
+        <v>795</v>
       </c>
     </row>
     <row r="30">
@@ -1955,15 +1955,15 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>AO</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1983,7 +1983,7 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>985</v>
+        <v>795</v>
       </c>
     </row>
     <row r="31">
@@ -1992,7 +1992,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -2010,14 +2010,14 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>normal</t>
         </is>
       </c>
       <c r="G31" t="n">
         <v>40</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="I31" s="2" t="n">
         <v>45298</v>
@@ -2031,10 +2031,10 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="M31" t="n">
-        <v>985</v>
+        <v>795</v>
       </c>
     </row>
     <row r="32">
@@ -2043,7 +2043,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -2057,7 +2057,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -2065,10 +2065,10 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="I32" s="2" t="n">
         <v>45298</v>
@@ -2082,10 +2082,10 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="M32" t="n">
-        <v>1700</v>
+        <v>291</v>
       </c>
     </row>
     <row r="33">
@@ -2094,7 +2094,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -2108,7 +2108,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -2116,10 +2116,10 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="I33" s="2" t="n">
         <v>45299</v>
@@ -2133,7 +2133,7 @@
         <v>4</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
@@ -2147,7 +2147,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -2161,7 +2161,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -2169,10 +2169,10 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="I34" s="2" t="n">
         <v>45300</v>
@@ -2186,7 +2186,7 @@
         <v>4</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2214,7 +2214,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -2222,10 +2222,10 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="I35" s="2" t="n">
         <v>45301</v>
@@ -2239,7 +2239,7 @@
         <v>4</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
@@ -2253,7 +2253,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2267,7 +2267,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -2275,10 +2275,10 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="I36" s="2" t="n">
         <v>45302</v>
@@ -2292,7 +2292,7 @@
         <v>4</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2320,7 +2320,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -2328,7 +2328,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2348,7 +2348,7 @@
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>1389</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="38">
@@ -2357,7 +2357,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -2379,7 +2379,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2399,7 +2399,7 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>1389</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="39">
@@ -2408,7 +2408,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2422,7 +2422,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -2430,7 +2430,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2461,7 +2461,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -2483,7 +2483,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2510,11 +2510,11 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45301</v>
+        <v>45298</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2528,21 +2528,21 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>net demand for AO</t>
+          <t>net demand for normal</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" s="2" t="n">
-        <v>45301</v>
+        <v>45298</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
@@ -2555,10 +2555,8 @@
       <c r="L41" t="n">
         <v>0</v>
       </c>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="M41" t="n">
+        <v>1121</v>
       </c>
     </row>
     <row r="42">
@@ -2577,39 +2575,39 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>51</v>
+        <v>100</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>net demand for normal</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I42" s="2" t="n">
         <v>45298</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="K42" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M42" t="n">
-        <v>1389</v>
+        <v>291</v>
       </c>
     </row>
     <row r="43">
@@ -2628,11 +2626,11 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -2643,21 +2641,21 @@
         <v>50</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I43" s="2" t="n">
         <v>45299</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K43" t="n">
         <v>4</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
@@ -2681,11 +2679,11 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -2696,21 +2694,21 @@
         <v>50</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I44" s="2" t="n">
         <v>45300</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K44" t="n">
         <v>4</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
@@ -2734,11 +2732,11 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -2749,21 +2747,21 @@
         <v>50</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I45" s="2" t="n">
         <v>45301</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K45" t="n">
         <v>4</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
@@ -2787,11 +2785,11 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -2802,21 +2800,21 @@
         <v>50</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I46" s="2" t="n">
         <v>45302</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K46" t="n">
         <v>4</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
@@ -2840,11 +2838,11 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
@@ -2852,27 +2850,27 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="I47" s="2" t="n">
         <v>45292</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K47" t="n">
         <v>4</v>
       </c>
       <c r="L47" t="n">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="M47" t="n">
-        <v>985</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="48">
@@ -2891,11 +2889,11 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -2913,7 +2911,7 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K48" t="n">
@@ -2923,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="M48" t="n">
-        <v>985</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="49">
@@ -2942,11 +2940,11 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
@@ -2964,7 +2962,7 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K49" t="n">
@@ -2995,11 +2993,11 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
@@ -3017,7 +3015,7 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K50" t="n">
@@ -3048,11 +3046,11 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
@@ -3070,7 +3068,7 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K51" t="n">
@@ -3101,11 +3099,11 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
@@ -3113,7 +3111,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3123,7 +3121,7 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K52" t="n">
@@ -3133,16 +3131,16 @@
         <v>0</v>
       </c>
       <c r="M52" t="n">
-        <v>985</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>45298</v>
+        <v>45299</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -3152,48 +3150,50 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>net demand for forecast</t>
         </is>
       </c>
       <c r="G53" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I53" s="2" t="n">
-        <v>45298</v>
+        <v>45299</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K53" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L53" t="n">
-        <v>0</v>
-      </c>
-      <c r="M53" t="n">
-        <v>1700</v>
+        <v>50</v>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>45299</v>
+        <v>45300</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -3203,11 +3203,11 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
@@ -3215,24 +3215,24 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I54" s="2" t="n">
-        <v>45299</v>
+        <v>45300</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K54" t="n">
         <v>4</v>
       </c>
       <c r="L54" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
@@ -3242,11 +3242,11 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>45300</v>
+        <v>45301</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -3256,11 +3256,11 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
@@ -3268,24 +3268,24 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I55" s="2" t="n">
-        <v>45300</v>
+        <v>45301</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K55" t="n">
         <v>4</v>
       </c>
       <c r="L55" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M55" t="inlineStr">
         <is>
@@ -3295,11 +3295,11 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>45301</v>
+        <v>45302</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3309,11 +3309,11 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
@@ -3321,24 +3321,24 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I56" s="2" t="n">
-        <v>45301</v>
+        <v>45302</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K56" t="n">
         <v>4</v>
       </c>
       <c r="L56" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M56" t="inlineStr">
         <is>
@@ -3348,11 +3348,11 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>45302</v>
+        <v>45298</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3362,41 +3362,39 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>net demand for safety</t>
         </is>
       </c>
       <c r="G57" t="n">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="I57" s="2" t="n">
-        <v>45302</v>
+        <v>45292</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K57" t="n">
         <v>4</v>
       </c>
       <c r="L57" t="n">
-        <v>0</v>
-      </c>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>47</v>
+      </c>
+      <c r="M57" t="n">
+        <v>795</v>
       </c>
     </row>
     <row r="58">
@@ -3405,7 +3403,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3415,29 +3413,29 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>net demand for safety</t>
+          <t>net demand for AO</t>
         </is>
       </c>
       <c r="G58" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
       </c>
       <c r="I58" s="2" t="n">
-        <v>45292</v>
+        <v>45298</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K58" t="n">
@@ -3447,16 +3445,16 @@
         <v>0</v>
       </c>
       <c r="M58" t="n">
-        <v>1389</v>
+        <v>795</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>45298</v>
+        <v>45299</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3466,11 +3464,11 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
@@ -3478,17 +3476,17 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
       </c>
       <c r="I59" s="2" t="n">
-        <v>45298</v>
+        <v>45299</v>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K59" t="n">
@@ -3497,17 +3495,19 @@
       <c r="L59" t="n">
         <v>0</v>
       </c>
-      <c r="M59" t="n">
-        <v>1389</v>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>45299</v>
+        <v>45300</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3517,11 +3517,11 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
@@ -3529,17 +3529,17 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
       </c>
       <c r="I60" s="2" t="n">
-        <v>45299</v>
+        <v>45300</v>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K60" t="n">
@@ -3556,11 +3556,11 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>45300</v>
+        <v>45301</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3570,11 +3570,11 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
@@ -3582,17 +3582,17 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
       </c>
       <c r="I61" s="2" t="n">
-        <v>45300</v>
+        <v>45301</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K61" t="n">
@@ -3613,7 +3613,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3623,11 +3623,11 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
@@ -3635,7 +3635,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -3645,7 +3645,7 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K62" t="n">
@@ -3655,7 +3655,7 @@
         <v>0</v>
       </c>
       <c r="M62" t="n">
-        <v>1389</v>
+        <v>795</v>
       </c>
     </row>
   </sheetData>
@@ -3669,7 +3669,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G62"/>
+  <dimension ref="A1:G53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4030,24 +4030,24 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -4070,7 +4070,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -4078,7 +4078,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -4101,7 +4101,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -4109,7 +4109,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -4163,15 +4163,15 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -4194,15 +4194,15 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>AO</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -4287,15 +4287,15 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>AO</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -4309,24 +4309,24 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>normal</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -4380,7 +4380,7 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -4388,7 +4388,7 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -4411,7 +4411,7 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -4419,7 +4419,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -4442,15 +4442,15 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -4473,15 +4473,15 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>AO</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -4535,7 +4535,7 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -4543,7 +4543,7 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -4597,15 +4597,15 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>AO</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -4632,11 +4632,11 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>normal</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -4659,7 +4659,7 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -4667,7 +4667,7 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -4690,7 +4690,7 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -4698,7 +4698,7 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -4729,7 +4729,7 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -4752,7 +4752,7 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -4760,7 +4760,7 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -4783,7 +4783,7 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -4791,7 +4791,7 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -4814,7 +4814,7 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -4822,7 +4822,7 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -4845,7 +4845,7 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -4853,7 +4853,7 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -4876,7 +4876,7 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -4884,7 +4884,7 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -4907,7 +4907,7 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -4915,7 +4915,7 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -4925,7 +4925,7 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45301</v>
+        <v>45298</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -4938,15 +4938,15 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>net demand for AO</t>
+          <t>net demand for normal</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -4969,15 +4969,15 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>net demand for normal</t>
+          <t>net demand for safety</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -4987,7 +4987,7 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45299</v>
+        <v>45298</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -4996,15 +4996,15 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>net demand for AO</t>
         </is>
       </c>
       <c r="F43" t="n">
@@ -5018,7 +5018,7 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45300</v>
+        <v>45299</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -5027,15 +5027,15 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>net demand for AO</t>
         </is>
       </c>
       <c r="F44" t="n">
@@ -5049,7 +5049,7 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45301</v>
+        <v>45300</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -5058,15 +5058,15 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>net demand for AO</t>
         </is>
       </c>
       <c r="F45" t="n">
@@ -5080,7 +5080,7 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45302</v>
+        <v>45301</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -5089,15 +5089,15 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>net demand for AO</t>
         </is>
       </c>
       <c r="F46" t="n">
@@ -5120,15 +5120,15 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>net demand for safety</t>
+          <t>net demand for normal</t>
         </is>
       </c>
       <c r="F47" t="n">
@@ -5155,15 +5155,15 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>net demand for AO</t>
+          <t>net demand for safety</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -5173,7 +5173,7 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45299</v>
+        <v>45298</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -5204,7 +5204,7 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>45300</v>
+        <v>45299</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -5217,7 +5217,7 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -5235,7 +5235,7 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45301</v>
+        <v>45300</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>45298</v>
+        <v>45301</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -5279,11 +5279,11 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>net demand for normal</t>
+          <t>net demand for AO</t>
         </is>
       </c>
       <c r="F52" t="n">
@@ -5306,300 +5306,21 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>80</v>
+        <v>4</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>net demand for normal</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="G53" t="inlineStr">
-        <is>
-          <t>supply shortage</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="2" t="n">
-        <v>45299</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>PLANT_001</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>DC_001</t>
-        </is>
-      </c>
-      <c r="D54" t="n">
-        <v>36</v>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>net demand for forecast</t>
-        </is>
-      </c>
-      <c r="F54" t="n">
-        <v>40</v>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>supply shortage</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="2" t="n">
-        <v>45300</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>PLANT_001</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>DC_001</t>
-        </is>
-      </c>
-      <c r="D55" t="n">
-        <v>32</v>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>net demand for forecast</t>
-        </is>
-      </c>
-      <c r="F55" t="n">
-        <v>40</v>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>supply shortage</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="2" t="n">
-        <v>45301</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>PLANT_001</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>DC_001</t>
-        </is>
-      </c>
-      <c r="D56" t="n">
-        <v>36</v>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>net demand for forecast</t>
-        </is>
-      </c>
-      <c r="F56" t="n">
-        <v>40</v>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>supply shortage</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="2" t="n">
-        <v>45302</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>PLANT_001</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>DC_001</t>
-        </is>
-      </c>
-      <c r="D57" t="n">
-        <v>36</v>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>net demand for forecast</t>
-        </is>
-      </c>
-      <c r="F57" t="n">
-        <v>40</v>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>supply shortage</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="2" t="n">
-        <v>45298</v>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>PLANT_001</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>DC_001</t>
-        </is>
-      </c>
-      <c r="D58" t="n">
-        <v>50</v>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>net demand for safety</t>
-        </is>
-      </c>
-      <c r="F58" t="n">
-        <v>60</v>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>supply shortage</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="2" t="n">
-        <v>45298</v>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>PLANT_001</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>DC_001</t>
-        </is>
-      </c>
-      <c r="D59" t="n">
-        <v>4</v>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>net demand for AO</t>
-        </is>
-      </c>
-      <c r="F59" t="n">
-        <v>40</v>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>supply shortage</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="2" t="n">
-        <v>45299</v>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>PLANT_001</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>DC_001</t>
-        </is>
-      </c>
-      <c r="D60" t="n">
-        <v>4</v>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>net demand for AO</t>
-        </is>
-      </c>
-      <c r="F60" t="n">
-        <v>40</v>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>supply shortage</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="2" t="n">
-        <v>45300</v>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>PLANT_001</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>DC_001</t>
-        </is>
-      </c>
-      <c r="D61" t="n">
-        <v>4</v>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>net demand for AO</t>
-        </is>
-      </c>
-      <c r="F61" t="n">
-        <v>40</v>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>supply shortage</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="2" t="n">
-        <v>45298</v>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>PLANT_001</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>DC_001</t>
-        </is>
-      </c>
-      <c r="D62" t="n">
-        <v>35</v>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>net demand for normal</t>
-        </is>
-      </c>
-      <c r="F62" t="n">
-        <v>40</v>
-      </c>
-      <c r="G62" t="inlineStr">
         <is>
           <t>supply shortage</t>
         </is>
@@ -5684,14 +5405,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
         <v>45298</v>
       </c>
       <c r="D2" t="n">
-        <v>150</v>
+        <v>15</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -5703,31 +5424,31 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>111</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C3" s="2" t="n">
         <v>45298</v>
       </c>
       <c r="D3" t="n">
-        <v>100</v>
+        <v>236</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -5736,34 +5457,34 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>100</v>
+        <v>247</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C4" s="2" t="n">
         <v>45298</v>
       </c>
       <c r="D4" t="n">
-        <v>200</v>
+        <v>157</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -5772,16 +5493,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
     </row>
     <row r="5">
@@ -5799,7 +5520,7 @@
         <v>45298</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>149</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -5808,34 +5529,34 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="C6" s="2" t="n">
         <v>45298</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>444</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -5853,25 +5574,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>444</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="C7" s="2" t="n">
         <v>45298</v>
       </c>
       <c r="D7" t="n">
-        <v>15</v>
+        <v>947</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -5886,10 +5607,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>109</v>
       </c>
       <c r="J7" t="n">
-        <v>15</v>
+        <v>838</v>
       </c>
     </row>
   </sheetData>

--- a/e2e_test_output_12week_forecast_test/simulation_output/module5/Module5Output_20240107.xlsx
+++ b/e2e_test_output_12week_forecast_test/simulation_output/module5/Module5Output_20240107.xlsx
@@ -513,29 +513,29 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -545,7 +545,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K2" t="n">
@@ -555,7 +555,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1121</v>
+        <v>892</v>
       </c>
     </row>
     <row r="3">
@@ -569,16 +569,16 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -586,7 +586,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -596,7 +596,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K3" t="n">
@@ -606,7 +606,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>1121</v>
+        <v>892</v>
       </c>
     </row>
     <row r="4">
@@ -620,16 +620,16 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -637,7 +637,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -647,7 +647,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K4" t="n">
@@ -657,7 +657,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>1121</v>
+        <v>892</v>
       </c>
     </row>
     <row r="5">
@@ -671,16 +671,16 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -688,7 +688,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -698,7 +698,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K5" t="n">
@@ -708,7 +708,7 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>1121</v>
+        <v>892</v>
       </c>
     </row>
     <row r="6">
@@ -722,24 +722,24 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -749,7 +749,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K6" t="n">
@@ -759,7 +759,7 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>1121</v>
+        <v>892</v>
       </c>
     </row>
     <row r="7">
@@ -773,24 +773,24 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>AO</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -800,7 +800,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K7" t="n">
@@ -810,7 +810,7 @@
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>1121</v>
+        <v>892</v>
       </c>
     </row>
     <row r="8">
@@ -824,16 +824,16 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -841,7 +841,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -851,7 +851,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K8" t="n">
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>1121</v>
+        <v>892</v>
       </c>
     </row>
     <row r="9">
@@ -875,16 +875,16 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -892,7 +892,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -902,7 +902,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K9" t="n">
@@ -912,7 +912,7 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>1121</v>
+        <v>892</v>
       </c>
     </row>
     <row r="10">
@@ -926,16 +926,16 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -943,7 +943,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -953,7 +953,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K10" t="n">
@@ -963,7 +963,7 @@
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>1121</v>
+        <v>892</v>
       </c>
     </row>
     <row r="11">
@@ -977,24 +977,24 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>AO</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1004,7 +1004,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K11" t="n">
@@ -1014,7 +1014,7 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>1121</v>
+        <v>892</v>
       </c>
     </row>
     <row r="12">
@@ -1023,7 +1023,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1041,7 +1041,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>normal</t>
         </is>
       </c>
       <c r="G12" t="n">
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>795</v>
+        <v>892</v>
       </c>
     </row>
     <row r="13">
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>1121</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="14">
@@ -1167,7 +1167,7 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>1121</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="15">
@@ -1218,7 +1218,7 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>1121</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="16">
@@ -1269,7 +1269,7 @@
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>1121</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="17">
@@ -1320,7 +1320,7 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>1121</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="18">
@@ -1371,7 +1371,7 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>1121</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="19">
@@ -1422,7 +1422,7 @@
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>1121</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="20">
@@ -1473,7 +1473,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>1121</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="21">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -1504,10 +1504,10 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H21" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I21" s="2" t="n">
         <v>45298</v>
@@ -1521,10 +1521,10 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>1121</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="22">
@@ -1538,16 +1538,16 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -1555,7 +1555,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1565,7 +1565,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K22" t="n">
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>795</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="23">
@@ -1589,16 +1589,16 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1616,7 +1616,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K23" t="n">
@@ -1626,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>795</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="24">
@@ -1640,16 +1640,16 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -1657,7 +1657,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1667,7 +1667,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K24" t="n">
@@ -1677,7 +1677,7 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>795</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="25">
@@ -1691,16 +1691,16 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -1708,7 +1708,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1718,7 +1718,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K25" t="n">
@@ -1728,7 +1728,7 @@
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>795</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="26">
@@ -1742,16 +1742,16 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -1759,7 +1759,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1769,7 +1769,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K26" t="n">
@@ -1779,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>795</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="27">
@@ -1793,16 +1793,16 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -1810,7 +1810,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1820,7 +1820,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K27" t="n">
@@ -1830,7 +1830,7 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>795</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="28">
@@ -1844,16 +1844,16 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -1861,7 +1861,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1871,7 +1871,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K28" t="n">
@@ -1881,7 +1881,7 @@
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>795</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="29">
@@ -1895,16 +1895,16 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -1912,7 +1912,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1922,7 +1922,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K29" t="n">
@@ -1932,7 +1932,7 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>795</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="30">
@@ -1946,16 +1946,16 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K30" t="n">
@@ -1983,7 +1983,7 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>795</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="31">
@@ -1997,16 +1997,16 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -2014,27 +2014,27 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H31" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="I31" s="2" t="n">
         <v>45298</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K31" t="n">
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>795</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="32">
@@ -2068,7 +2068,7 @@
         <v>80</v>
       </c>
       <c r="H32" t="n">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="I32" s="2" t="n">
         <v>45298</v>
@@ -2082,10 +2082,10 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="M32" t="n">
-        <v>291</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="33">
@@ -2119,7 +2119,7 @@
         <v>40</v>
       </c>
       <c r="H33" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="I33" s="2" t="n">
         <v>45299</v>
@@ -2133,7 +2133,7 @@
         <v>4</v>
       </c>
       <c r="L33" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
@@ -2172,7 +2172,7 @@
         <v>40</v>
       </c>
       <c r="H34" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="I34" s="2" t="n">
         <v>45300</v>
@@ -2186,7 +2186,7 @@
         <v>4</v>
       </c>
       <c r="L34" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
@@ -2225,7 +2225,7 @@
         <v>40</v>
       </c>
       <c r="H35" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="I35" s="2" t="n">
         <v>45301</v>
@@ -2239,7 +2239,7 @@
         <v>4</v>
       </c>
       <c r="L35" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
@@ -2278,7 +2278,7 @@
         <v>40</v>
       </c>
       <c r="H36" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="I36" s="2" t="n">
         <v>45302</v>
@@ -2292,7 +2292,7 @@
         <v>4</v>
       </c>
       <c r="L36" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
@@ -2348,7 +2348,7 @@
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>1121</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="38">
@@ -2399,7 +2399,7 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>1121</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="39">
@@ -2528,7 +2528,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -2556,7 +2556,7 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>1121</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="42">
@@ -2590,7 +2590,7 @@
         <v>100</v>
       </c>
       <c r="H42" t="n">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="I42" s="2" t="n">
         <v>45298</v>
@@ -2604,10 +2604,10 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="M42" t="n">
-        <v>291</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="43">
@@ -2626,11 +2626,11 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -2641,21 +2641,21 @@
         <v>50</v>
       </c>
       <c r="H43" t="n">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="I43" s="2" t="n">
         <v>45299</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K43" t="n">
         <v>4</v>
       </c>
       <c r="L43" t="n">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
@@ -2679,11 +2679,11 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -2694,21 +2694,21 @@
         <v>50</v>
       </c>
       <c r="H44" t="n">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="I44" s="2" t="n">
         <v>45300</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K44" t="n">
         <v>4</v>
       </c>
       <c r="L44" t="n">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
@@ -2732,11 +2732,11 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -2747,21 +2747,21 @@
         <v>50</v>
       </c>
       <c r="H45" t="n">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="I45" s="2" t="n">
         <v>45301</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K45" t="n">
         <v>4</v>
       </c>
       <c r="L45" t="n">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
@@ -2785,11 +2785,11 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -2800,21 +2800,21 @@
         <v>50</v>
       </c>
       <c r="H46" t="n">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="I46" s="2" t="n">
         <v>45302</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K46" t="n">
         <v>4</v>
       </c>
       <c r="L46" t="n">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
@@ -2838,11 +2838,11 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
@@ -2850,27 +2850,27 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="H47" t="n">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="I47" s="2" t="n">
         <v>45292</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K47" t="n">
         <v>4</v>
       </c>
       <c r="L47" t="n">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="M47" t="n">
-        <v>1121</v>
+        <v>892</v>
       </c>
     </row>
     <row r="48">
@@ -2889,11 +2889,11 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -2911,7 +2911,7 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K48" t="n">
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="M48" t="n">
-        <v>1121</v>
+        <v>892</v>
       </c>
     </row>
     <row r="49">
@@ -2940,11 +2940,11 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
@@ -2962,7 +2962,7 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K49" t="n">
@@ -2993,11 +2993,11 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
@@ -3015,7 +3015,7 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K50" t="n">
@@ -3046,11 +3046,11 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
@@ -3068,7 +3068,7 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K51" t="n">
@@ -3099,11 +3099,11 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
@@ -3111,7 +3111,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3121,7 +3121,7 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K52" t="n">
@@ -3131,7 +3131,7 @@
         <v>0</v>
       </c>
       <c r="M52" t="n">
-        <v>1121</v>
+        <v>892</v>
       </c>
     </row>
     <row r="53">
@@ -3150,11 +3150,11 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
@@ -3165,21 +3165,21 @@
         <v>50</v>
       </c>
       <c r="H53" t="n">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="I53" s="2" t="n">
         <v>45299</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K53" t="n">
         <v>4</v>
       </c>
       <c r="L53" t="n">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
@@ -3203,11 +3203,11 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
@@ -3218,21 +3218,21 @@
         <v>50</v>
       </c>
       <c r="H54" t="n">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="I54" s="2" t="n">
         <v>45300</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K54" t="n">
         <v>4</v>
       </c>
       <c r="L54" t="n">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
@@ -3256,11 +3256,11 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
@@ -3271,21 +3271,21 @@
         <v>50</v>
       </c>
       <c r="H55" t="n">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="I55" s="2" t="n">
         <v>45301</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K55" t="n">
         <v>4</v>
       </c>
       <c r="L55" t="n">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="M55" t="inlineStr">
         <is>
@@ -3309,11 +3309,11 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
@@ -3324,21 +3324,21 @@
         <v>50</v>
       </c>
       <c r="H56" t="n">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="I56" s="2" t="n">
         <v>45302</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K56" t="n">
         <v>4</v>
       </c>
       <c r="L56" t="n">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="M56" t="inlineStr">
         <is>
@@ -3362,11 +3362,11 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
@@ -3374,27 +3374,27 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="H57" t="n">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="I57" s="2" t="n">
         <v>45292</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K57" t="n">
         <v>4</v>
       </c>
       <c r="L57" t="n">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="M57" t="n">
-        <v>795</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="58">
@@ -3413,11 +3413,11 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
@@ -3435,7 +3435,7 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K58" t="n">
@@ -3445,7 +3445,7 @@
         <v>0</v>
       </c>
       <c r="M58" t="n">
-        <v>795</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="59">
@@ -3464,11 +3464,11 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
@@ -3486,7 +3486,7 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K59" t="n">
@@ -3517,11 +3517,11 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
@@ -3539,7 +3539,7 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K60" t="n">
@@ -3570,11 +3570,11 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
@@ -3592,7 +3592,7 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K61" t="n">
@@ -3623,11 +3623,11 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
@@ -3645,7 +3645,7 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K62" t="n">
@@ -3655,7 +3655,7 @@
         <v>0</v>
       </c>
       <c r="M62" t="n">
-        <v>795</v>
+        <v>1332</v>
       </c>
     </row>
   </sheetData>
@@ -3669,7 +3669,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G53"/>
+  <dimension ref="A1:G62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3720,24 +3720,24 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -3751,16 +3751,16 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -3768,7 +3768,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -3782,16 +3782,16 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -3799,7 +3799,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -3813,16 +3813,16 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -3830,7 +3830,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -3844,24 +3844,24 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -3875,24 +3875,24 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>AO</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -3906,16 +3906,16 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -3923,7 +3923,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -3937,16 +3937,16 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -3954,7 +3954,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -3968,16 +3968,16 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -3985,7 +3985,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -3999,24 +3999,24 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>AO</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -4043,7 +4043,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>normal</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -4318,7 +4318,7 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -4326,7 +4326,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -4340,16 +4340,16 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -4357,7 +4357,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -4371,16 +4371,16 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -4388,7 +4388,7 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -4402,16 +4402,16 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -4419,7 +4419,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -4433,16 +4433,16 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -4450,7 +4450,7 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -4464,16 +4464,16 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -4481,7 +4481,7 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -4495,16 +4495,16 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -4512,7 +4512,7 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -4526,16 +4526,16 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -4543,7 +4543,7 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -4557,16 +4557,16 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -4574,7 +4574,7 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -4588,16 +4588,16 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -4605,7 +4605,7 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -4619,16 +4619,16 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -4636,7 +4636,7 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -4667,7 +4667,7 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -4698,7 +4698,7 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -4729,7 +4729,7 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -4760,7 +4760,7 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -4791,7 +4791,7 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -4938,7 +4938,7 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -4965,19 +4965,19 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>net demand for safety</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -4987,7 +4987,7 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45298</v>
+        <v>45299</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -4996,19 +4996,19 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>net demand for AO</t>
+          <t>net demand for forecast</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -5018,7 +5018,7 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45299</v>
+        <v>45300</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -5027,19 +5027,19 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>net demand for AO</t>
+          <t>net demand for forecast</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -5049,7 +5049,7 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45300</v>
+        <v>45301</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -5058,19 +5058,19 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>net demand for AO</t>
+          <t>net demand for forecast</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -5080,7 +5080,7 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45301</v>
+        <v>45302</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -5089,19 +5089,19 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>net demand for AO</t>
+          <t>net demand for forecast</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -5120,15 +5120,15 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>net demand for normal</t>
+          <t>net demand for safety</t>
         </is>
       </c>
       <c r="F47" t="n">
@@ -5155,15 +5155,15 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>net demand for safety</t>
+          <t>net demand for AO</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -5173,7 +5173,7 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45298</v>
+        <v>45299</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -5186,7 +5186,7 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -5204,7 +5204,7 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>45299</v>
+        <v>45300</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -5217,7 +5217,7 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -5235,7 +5235,7 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45300</v>
+        <v>45301</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>45301</v>
+        <v>45298</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -5279,11 +5279,11 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>net demand for AO</t>
+          <t>net demand for normal</t>
         </is>
       </c>
       <c r="F52" t="n">
@@ -5297,7 +5297,7 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>45298</v>
+        <v>45299</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -5306,21 +5306,300 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="F53" t="n">
+        <v>33</v>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>supply shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>45300</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>50</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="F54" t="n">
+        <v>33</v>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>supply shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>45301</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>41</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="F55" t="n">
+        <v>33</v>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>supply shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>45302</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>50</v>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="F56" t="n">
+        <v>33</v>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>supply shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>80</v>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>net demand for safety</t>
+        </is>
+      </c>
+      <c r="F57" t="n">
+        <v>100</v>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>supply shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>8</v>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>net demand for AO</t>
+        </is>
+      </c>
+      <c r="F58" t="n">
+        <v>50</v>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>supply shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>45299</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>8</v>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>net demand for AO</t>
+        </is>
+      </c>
+      <c r="F59" t="n">
+        <v>50</v>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>supply shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>45300</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>8</v>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>net demand for AO</t>
+        </is>
+      </c>
+      <c r="F60" t="n">
+        <v>50</v>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>supply shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>45301</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>9</v>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>net demand for AO</t>
+        </is>
+      </c>
+      <c r="F61" t="n">
+        <v>50</v>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>supply shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>45</v>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
           <t>net demand for normal</t>
         </is>
       </c>
-      <c r="F53" t="n">
+      <c r="F62" t="n">
         <v>50</v>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>supply shortage</t>
         </is>
@@ -5448,7 +5727,7 @@
         <v>45298</v>
       </c>
       <c r="D3" t="n">
-        <v>236</v>
+        <v>118</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -5457,16 +5736,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="H3" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>247</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4">
@@ -5484,7 +5763,7 @@
         <v>45298</v>
       </c>
       <c r="D4" t="n">
-        <v>157</v>
+        <v>56</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -5493,16 +5772,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H4" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>190</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5">
@@ -5520,7 +5799,7 @@
         <v>45298</v>
       </c>
       <c r="D5" t="n">
-        <v>149</v>
+        <v>40</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -5529,16 +5808,16 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>42</v>
+        <v>84</v>
       </c>
       <c r="H5" t="n">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>132</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6">
@@ -5556,7 +5835,7 @@
         <v>45298</v>
       </c>
       <c r="D6" t="n">
-        <v>444</v>
+        <v>120</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -5574,7 +5853,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>444</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7">
@@ -5592,7 +5871,7 @@
         <v>45298</v>
       </c>
       <c r="D7" t="n">
-        <v>947</v>
+        <v>7</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -5607,10 +5886,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>109</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>838</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/e2e_test_output_12week_forecast_test/simulation_output/module5/Module5Output_20240107.xlsx
+++ b/e2e_test_output_12week_forecast_test/simulation_output/module5/Module5Output_20240107.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M62"/>
+  <dimension ref="A1:M70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -513,7 +513,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -527,15 +527,15 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>40</v>
+        <v>111</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>40</v>
+        <v>111</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -555,7 +555,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>892</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -578,7 +578,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>43</v>
+        <v>111</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -586,7 +586,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>43</v>
+        <v>111</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -606,7 +606,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>892</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
@@ -629,7 +629,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>43</v>
+        <v>95</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -637,7 +637,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>43</v>
+        <v>95</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -657,7 +657,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>892</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5">
@@ -680,7 +680,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>37</v>
+        <v>110</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -688,7 +688,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>37</v>
+        <v>110</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -708,7 +708,7 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>892</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6">
@@ -731,15 +731,15 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -759,7 +759,7 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>892</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="7">
@@ -782,15 +782,15 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>AO</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -810,7 +810,7 @@
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>892</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="8">
@@ -833,7 +833,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -841,7 +841,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>892</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="9">
@@ -884,7 +884,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -892,7 +892,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -912,7 +912,7 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>892</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="10">
@@ -935,7 +935,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -943,7 +943,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -963,7 +963,7 @@
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>892</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="11">
@@ -986,15 +986,15 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6</v>
+        <v>109</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>AO</t>
+          <t>normal</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>6</v>
+        <v>109</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1014,7 +1014,7 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>892</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="12">
@@ -1023,29 +1023,29 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1055,7 +1055,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K12" t="n">
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>892</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="13">
@@ -1088,7 +1088,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>1332</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="14">
@@ -1139,7 +1139,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -1147,7 +1147,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1167,7 +1167,7 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>1332</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="15">
@@ -1190,7 +1190,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -1198,7 +1198,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1218,7 +1218,7 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>1332</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="16">
@@ -1241,15 +1241,15 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1269,7 +1269,7 @@
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>1332</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="17">
@@ -1292,15 +1292,15 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>AO</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1320,7 +1320,7 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>1332</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="18">
@@ -1343,7 +1343,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -1351,7 +1351,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1371,7 +1371,7 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>1332</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="19">
@@ -1394,7 +1394,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -1402,7 +1402,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1422,7 +1422,7 @@
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>1332</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="20">
@@ -1445,15 +1445,15 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>AO</t>
+          <t>normal</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1473,7 +1473,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>1332</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="21">
@@ -1487,24 +1487,24 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1514,7 +1514,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K21" t="n">
@@ -1524,7 +1524,7 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>1332</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="22">
@@ -1533,29 +1533,29 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>normal</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1565,7 +1565,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K22" t="n">
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>1332</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="23">
@@ -1598,7 +1598,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1626,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>1332</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="24">
@@ -1649,7 +1649,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -1657,7 +1657,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1677,7 +1677,7 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>1332</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="25">
@@ -1700,7 +1700,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -1708,7 +1708,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1728,7 +1728,7 @@
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>1332</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="26">
@@ -1751,15 +1751,15 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1779,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>1332</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="27">
@@ -1802,15 +1802,15 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>AO</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1830,7 +1830,7 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>1332</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="28">
@@ -1853,7 +1853,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -1861,7 +1861,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1881,7 +1881,7 @@
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>1332</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="29">
@@ -1904,7 +1904,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -1912,7 +1912,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1932,7 +1932,7 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>1332</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="30">
@@ -1955,7 +1955,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1983,7 +1983,7 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>1332</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="31">
@@ -2006,15 +2006,15 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>AO</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2034,7 +2034,7 @@
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>1332</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="32">
@@ -2043,54 +2043,54 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>normal</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="H32" t="n">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I32" s="2" t="n">
         <v>45298</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K32" t="n">
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="M32" t="n">
-        <v>1516</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45299</v>
+        <v>45298</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -2104,46 +2104,44 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="H33" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I33" s="2" t="n">
-        <v>45299</v>
+        <v>45298</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="K33" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>13</v>
-      </c>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45300</v>
+        <v>45299</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -2161,7 +2159,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -2172,10 +2170,10 @@
         <v>40</v>
       </c>
       <c r="H34" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="I34" s="2" t="n">
-        <v>45300</v>
+        <v>45299</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
@@ -2186,7 +2184,7 @@
         <v>4</v>
       </c>
       <c r="L34" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
@@ -2196,7 +2194,7 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45301</v>
+        <v>45300</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -2214,7 +2212,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -2225,10 +2223,10 @@
         <v>40</v>
       </c>
       <c r="H35" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="I35" s="2" t="n">
-        <v>45301</v>
+        <v>45300</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
@@ -2239,7 +2237,7 @@
         <v>4</v>
       </c>
       <c r="L35" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
@@ -2249,7 +2247,7 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45302</v>
+        <v>45301</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -2267,7 +2265,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -2278,10 +2276,10 @@
         <v>40</v>
       </c>
       <c r="H36" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="I36" s="2" t="n">
-        <v>45302</v>
+        <v>45301</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
@@ -2292,7 +2290,7 @@
         <v>4</v>
       </c>
       <c r="L36" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
@@ -2302,7 +2300,7 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45298</v>
+        <v>45302</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -2320,21 +2318,21 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>net demand for safety</t>
+          <t>net demand for forecast</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I37" s="2" t="n">
-        <v>45292</v>
+        <v>45302</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
@@ -2345,10 +2343,12 @@
         <v>4</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>1332</v>
+        <v>8</v>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="38">
@@ -2371,21 +2371,21 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>net demand for AO</t>
+          <t>net demand for safety</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" s="2" t="n">
-        <v>45298</v>
+        <v>45292</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
@@ -2399,12 +2399,12 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>1332</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45299</v>
+        <v>45298</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -2422,7 +2422,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -2436,7 +2436,7 @@
         <v>0</v>
       </c>
       <c r="I39" s="2" t="n">
-        <v>45299</v>
+        <v>45298</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
@@ -2449,15 +2449,13 @@
       <c r="L39" t="n">
         <v>0</v>
       </c>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="M39" t="n">
+        <v>1232</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45300</v>
+        <v>45299</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -2475,7 +2473,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -2489,7 +2487,7 @@
         <v>0</v>
       </c>
       <c r="I40" s="2" t="n">
-        <v>45300</v>
+        <v>45299</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
@@ -2510,7 +2508,7 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45298</v>
+        <v>45300</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -2528,11 +2526,11 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>net demand for normal</t>
+          <t>net demand for AO</t>
         </is>
       </c>
       <c r="G41" t="n">
@@ -2542,7 +2540,7 @@
         <v>0</v>
       </c>
       <c r="I41" s="2" t="n">
-        <v>45298</v>
+        <v>45300</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
@@ -2555,8 +2553,10 @@
       <c r="L41" t="n">
         <v>0</v>
       </c>
-      <c r="M41" t="n">
-        <v>1332</v>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="42">
@@ -2565,7 +2565,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2575,39 +2575,39 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>100</v>
+        <v>23</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>net demand for normal</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="H42" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="I42" s="2" t="n">
         <v>45298</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L42" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>1516</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="43">
@@ -2626,36 +2626,36 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G43" t="n">
         <v>50</v>
       </c>
       <c r="H43" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I43" s="2" t="n">
         <v>45299</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="K43" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
@@ -2679,36 +2679,36 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G44" t="n">
         <v>50</v>
       </c>
       <c r="H44" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I44" s="2" t="n">
         <v>45300</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="K44" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
@@ -2732,36 +2732,36 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G45" t="n">
         <v>50</v>
       </c>
       <c r="H45" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I45" s="2" t="n">
         <v>45301</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="K45" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
@@ -2785,36 +2785,36 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G46" t="n">
         <v>50</v>
       </c>
       <c r="H46" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I46" s="2" t="n">
         <v>45302</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="K46" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
@@ -2824,7 +2824,7 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45298</v>
+        <v>45303</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -2838,44 +2838,46 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>net demand for safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G47" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="I47" s="2" t="n">
-        <v>45292</v>
+        <v>45303</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="K47" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L47" t="n">
-        <v>0</v>
-      </c>
-      <c r="M47" t="n">
-        <v>892</v>
+        <v>13</v>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45298</v>
+        <v>45304</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -2889,44 +2891,46 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>net demand for AO</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G48" t="n">
         <v>50</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="I48" s="2" t="n">
-        <v>45298</v>
+        <v>45304</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="K48" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L48" t="n">
-        <v>0</v>
-      </c>
-      <c r="M48" t="n">
-        <v>892</v>
+        <v>13</v>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45299</v>
+        <v>45298</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -2940,46 +2944,44 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>net demand for AO</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="I49" s="2" t="n">
-        <v>45299</v>
+        <v>45298</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="K49" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L49" t="n">
         <v>0</v>
       </c>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="M49" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>45300</v>
+        <v>45298</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -2993,46 +2995,44 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>net demand for AO</t>
+          <t>normal</t>
         </is>
       </c>
       <c r="G50" t="n">
         <v>50</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I50" s="2" t="n">
-        <v>45300</v>
+        <v>45298</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="K50" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L50" t="n">
         <v>0</v>
       </c>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="M50" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45301</v>
+        <v>45299</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -3050,21 +3050,21 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>6</v>
+        <v>111</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>net demand for AO</t>
+          <t>net demand for forecast</t>
         </is>
       </c>
       <c r="G51" t="n">
-        <v>50</v>
+        <v>125</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="I51" s="2" t="n">
-        <v>45301</v>
+        <v>45299</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
@@ -3075,7 +3075,7 @@
         <v>4</v>
       </c>
       <c r="L51" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
@@ -3085,7 +3085,7 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>45298</v>
+        <v>45300</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -3103,21 +3103,21 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>40</v>
+        <v>111</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>net demand for normal</t>
+          <t>net demand for forecast</t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>50</v>
+        <v>125</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="I52" s="2" t="n">
-        <v>45298</v>
+        <v>45300</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
@@ -3128,15 +3128,17 @@
         <v>4</v>
       </c>
       <c r="L52" t="n">
-        <v>0</v>
-      </c>
-      <c r="M52" t="n">
-        <v>892</v>
+        <v>33</v>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>45299</v>
+        <v>45301</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -3150,11 +3152,11 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
@@ -3162,24 +3164,24 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H53" t="n">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="I53" s="2" t="n">
-        <v>45299</v>
+        <v>45301</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K53" t="n">
         <v>4</v>
       </c>
       <c r="L53" t="n">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
@@ -3189,7 +3191,7 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>45300</v>
+        <v>45302</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -3203,11 +3205,11 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
@@ -3215,24 +3217,24 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>50</v>
+        <v>125</v>
       </c>
       <c r="H54" t="n">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="I54" s="2" t="n">
-        <v>45300</v>
+        <v>45302</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K54" t="n">
         <v>4</v>
       </c>
       <c r="L54" t="n">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
@@ -3242,7 +3244,7 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>45301</v>
+        <v>45298</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -3256,46 +3258,44 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>net demand for safety</t>
         </is>
       </c>
       <c r="G55" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="H55" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="I55" s="2" t="n">
-        <v>45301</v>
+        <v>45292</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K55" t="n">
         <v>4</v>
       </c>
       <c r="L55" t="n">
-        <v>17</v>
-      </c>
-      <c r="M55" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="M55" t="n">
+        <v>1000</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>45302</v>
+        <v>45298</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -3309,46 +3309,44 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>net demand for AO</t>
         </is>
       </c>
       <c r="G56" t="n">
         <v>50</v>
       </c>
       <c r="H56" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="I56" s="2" t="n">
-        <v>45302</v>
+        <v>45298</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K56" t="n">
         <v>4</v>
       </c>
       <c r="L56" t="n">
-        <v>17</v>
-      </c>
-      <c r="M56" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="M56" t="n">
+        <v>1000</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>45298</v>
+        <v>45299</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -3362,29 +3360,29 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>80</v>
+        <v>14</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>net demand for safety</t>
+          <t>net demand for AO</t>
         </is>
       </c>
       <c r="G57" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
       </c>
       <c r="I57" s="2" t="n">
-        <v>45292</v>
+        <v>45299</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K57" t="n">
@@ -3393,13 +3391,15 @@
       <c r="L57" t="n">
         <v>0</v>
       </c>
-      <c r="M57" t="n">
-        <v>1332</v>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>45298</v>
+        <v>45300</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -3413,11 +3413,11 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
@@ -3431,11 +3431,11 @@
         <v>0</v>
       </c>
       <c r="I58" s="2" t="n">
-        <v>45298</v>
+        <v>45300</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K58" t="n">
@@ -3444,13 +3444,15 @@
       <c r="L58" t="n">
         <v>0</v>
       </c>
-      <c r="M58" t="n">
-        <v>1332</v>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>45299</v>
+        <v>45301</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -3464,11 +3466,11 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
@@ -3482,11 +3484,11 @@
         <v>0</v>
       </c>
       <c r="I59" s="2" t="n">
-        <v>45299</v>
+        <v>45301</v>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K59" t="n">
@@ -3503,7 +3505,7 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>45300</v>
+        <v>45298</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -3517,29 +3519,29 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>8</v>
+        <v>109</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>net demand for AO</t>
+          <t>net demand for normal</t>
         </is>
       </c>
       <c r="G60" t="n">
-        <v>50</v>
+        <v>125</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
       </c>
       <c r="I60" s="2" t="n">
-        <v>45300</v>
+        <v>45298</v>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K60" t="n">
@@ -3548,15 +3550,13 @@
       <c r="L60" t="n">
         <v>0</v>
       </c>
-      <c r="M60" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="M60" t="n">
+        <v>1000</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>45301</v>
+        <v>45299</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
@@ -3574,21 +3574,21 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>net demand for AO</t>
+          <t>net demand for forecast</t>
         </is>
       </c>
       <c r="G61" t="n">
         <v>50</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="I61" s="2" t="n">
-        <v>45301</v>
+        <v>45299</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
@@ -3599,7 +3599,7 @@
         <v>4</v>
       </c>
       <c r="L61" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="M61" t="inlineStr">
         <is>
@@ -3609,7 +3609,7 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>45298</v>
+        <v>45300</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
@@ -3627,21 +3627,21 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>net demand for normal</t>
+          <t>net demand for forecast</t>
         </is>
       </c>
       <c r="G62" t="n">
         <v>50</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="I62" s="2" t="n">
-        <v>45298</v>
+        <v>45300</v>
       </c>
       <c r="J62" t="inlineStr">
         <is>
@@ -3652,10 +3652,430 @@
         <v>4</v>
       </c>
       <c r="L62" t="n">
-        <v>0</v>
-      </c>
-      <c r="M62" t="n">
-        <v>1332</v>
+        <v>13</v>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>45301</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v>37</v>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="G63" t="n">
+        <v>50</v>
+      </c>
+      <c r="H63" t="n">
+        <v>13</v>
+      </c>
+      <c r="I63" s="2" t="n">
+        <v>45301</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>4</v>
+      </c>
+      <c r="L63" t="n">
+        <v>13</v>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>45302</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="E64" t="n">
+        <v>44</v>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="G64" t="n">
+        <v>50</v>
+      </c>
+      <c r="H64" t="n">
+        <v>13</v>
+      </c>
+      <c r="I64" s="2" t="n">
+        <v>45302</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>4</v>
+      </c>
+      <c r="L64" t="n">
+        <v>13</v>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="E65" t="n">
+        <v>80</v>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>net demand for safety</t>
+        </is>
+      </c>
+      <c r="G65" t="n">
+        <v>100</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" s="2" t="n">
+        <v>45292</v>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>4</v>
+      </c>
+      <c r="L65" t="n">
+        <v>0</v>
+      </c>
+      <c r="M65" t="n">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="E66" t="n">
+        <v>7</v>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>net demand for AO</t>
+        </is>
+      </c>
+      <c r="G66" t="n">
+        <v>50</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>4</v>
+      </c>
+      <c r="L66" t="n">
+        <v>0</v>
+      </c>
+      <c r="M66" t="n">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>45299</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="E67" t="n">
+        <v>7</v>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>net demand for AO</t>
+        </is>
+      </c>
+      <c r="G67" t="n">
+        <v>50</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" s="2" t="n">
+        <v>45299</v>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>4</v>
+      </c>
+      <c r="L67" t="n">
+        <v>0</v>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>45300</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="E68" t="n">
+        <v>7</v>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>net demand for AO</t>
+        </is>
+      </c>
+      <c r="G68" t="n">
+        <v>50</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" s="2" t="n">
+        <v>45300</v>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>4</v>
+      </c>
+      <c r="L68" t="n">
+        <v>0</v>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>45301</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="E69" t="n">
+        <v>7</v>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>net demand for AO</t>
+        </is>
+      </c>
+      <c r="G69" t="n">
+        <v>50</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" s="2" t="n">
+        <v>45301</v>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>4</v>
+      </c>
+      <c r="L69" t="n">
+        <v>0</v>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="E70" t="n">
+        <v>29</v>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>net demand for normal</t>
+        </is>
+      </c>
+      <c r="G70" t="n">
+        <v>50</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>4</v>
+      </c>
+      <c r="L70" t="n">
+        <v>0</v>
+      </c>
+      <c r="M70" t="n">
+        <v>1232</v>
       </c>
     </row>
   </sheetData>
@@ -3669,7 +4089,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G62"/>
+  <dimension ref="A1:G72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3729,15 +4149,15 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>40</v>
+        <v>111</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>40</v>
+        <v>111</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -3760,7 +4180,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>43</v>
+        <v>111</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -3768,7 +4188,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>43</v>
+        <v>111</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -3791,7 +4211,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>43</v>
+        <v>95</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -3799,7 +4219,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>43</v>
+        <v>95</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -3822,7 +4242,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>37</v>
+        <v>110</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -3830,7 +4250,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>37</v>
+        <v>110</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -3853,15 +4273,15 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -3884,15 +4304,15 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>AO</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -3915,7 +4335,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -3923,7 +4343,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -3946,7 +4366,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -3954,7 +4374,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -3977,7 +4397,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -3985,7 +4405,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -4008,15 +4428,15 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>6</v>
+        <v>109</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>AO</t>
+          <t>normal</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>6</v>
+        <v>109</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -4030,24 +4450,24 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -4070,7 +4490,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -4078,7 +4498,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -4101,7 +4521,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -4109,7 +4529,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -4132,7 +4552,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -4140,7 +4560,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -4163,15 +4583,15 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -4194,15 +4614,15 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>AO</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -4225,7 +4645,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -4233,7 +4653,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -4256,7 +4676,7 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -4264,7 +4684,7 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -4287,15 +4707,15 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>AO</t>
+          <t>normal</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -4309,24 +4729,24 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -4340,24 +4760,24 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>normal</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -4380,7 +4800,7 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -4388,7 +4808,7 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -4411,7 +4831,7 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -4419,7 +4839,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -4442,7 +4862,7 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -4450,7 +4870,7 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -4473,15 +4893,15 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -4504,15 +4924,15 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>AO</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -4535,7 +4955,7 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -4543,7 +4963,7 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -4566,7 +4986,7 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -4574,7 +4994,7 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -4597,7 +5017,7 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -4605,7 +5025,7 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -4628,15 +5048,15 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>AO</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -4650,24 +5070,24 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>normal</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -4677,7 +5097,7 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45299</v>
+        <v>45298</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -4686,19 +5106,19 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -4708,7 +5128,7 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45300</v>
+        <v>45299</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -4721,15 +5141,15 @@
         </is>
       </c>
       <c r="D34" t="n">
+        <v>22</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
         <v>32</v>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>net demand for forecast</t>
-        </is>
-      </c>
-      <c r="F34" t="n">
-        <v>27</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -4739,7 +5159,7 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45301</v>
+        <v>45300</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -4752,7 +5172,7 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -4760,7 +5180,7 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -4770,7 +5190,7 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45302</v>
+        <v>45301</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -4783,7 +5203,7 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -4791,7 +5211,7 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -4801,7 +5221,7 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45298</v>
+        <v>45302</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -4814,15 +5234,15 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>net demand for safety</t>
+          <t>net demand for forecast</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -4845,15 +5265,15 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>net demand for AO</t>
+          <t>net demand for safety</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -4863,7 +5283,7 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45299</v>
+        <v>45298</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -4876,7 +5296,7 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -4894,7 +5314,7 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45300</v>
+        <v>45299</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -4907,7 +5327,7 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -4925,7 +5345,7 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45298</v>
+        <v>45300</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -4938,11 +5358,11 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>net demand for normal</t>
+          <t>net demand for AO</t>
         </is>
       </c>
       <c r="F41" t="n">
@@ -4965,19 +5385,19 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>100</v>
+        <v>23</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>net demand for normal</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -4996,19 +5416,19 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -5027,19 +5447,19 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -5058,19 +5478,19 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="D45" t="n">
+        <v>33</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
         <v>37</v>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>net demand for forecast</t>
-        </is>
-      </c>
-      <c r="F45" t="n">
-        <v>33</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -5089,19 +5509,19 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -5111,7 +5531,7 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45298</v>
+        <v>45303</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -5120,19 +5540,19 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>net demand for safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>75</v>
+        <v>37</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -5142,7 +5562,7 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45298</v>
+        <v>45304</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -5151,19 +5571,19 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>net demand for AO</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -5173,7 +5593,7 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45299</v>
+        <v>45298</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -5182,19 +5602,19 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>net demand for AO</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -5204,7 +5624,7 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>45300</v>
+        <v>45299</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -5217,15 +5637,15 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>6</v>
+        <v>111</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>net demand for AO</t>
+          <t>net demand for forecast</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -5235,7 +5655,7 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45301</v>
+        <v>45300</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -5248,15 +5668,15 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>6</v>
+        <v>111</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>net demand for AO</t>
+          <t>net demand for forecast</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -5266,7 +5686,7 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>45298</v>
+        <v>45301</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -5279,15 +5699,15 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>net demand for normal</t>
+          <t>net demand for forecast</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -5297,7 +5717,7 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>45299</v>
+        <v>45302</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -5306,11 +5726,11 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -5318,7 +5738,7 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>33</v>
+        <v>92</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
@@ -5328,7 +5748,7 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>45300</v>
+        <v>45298</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -5337,19 +5757,19 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>net demand for safety</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -5359,7 +5779,7 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>45301</v>
+        <v>45298</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -5368,19 +5788,19 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>net demand for AO</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -5390,7 +5810,7 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>45302</v>
+        <v>45299</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -5399,19 +5819,19 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D56" t="n">
+        <v>14</v>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>net demand for AO</t>
+        </is>
+      </c>
+      <c r="F56" t="n">
         <v>50</v>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>net demand for forecast</t>
-        </is>
-      </c>
-      <c r="F56" t="n">
-        <v>33</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
@@ -5421,7 +5841,7 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>45298</v>
+        <v>45300</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -5430,19 +5850,19 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>net demand for safety</t>
+          <t>net demand for AO</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
@@ -5452,7 +5872,7 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>45298</v>
+        <v>45301</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -5461,11 +5881,11 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -5483,7 +5903,7 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>45299</v>
+        <v>45298</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -5492,19 +5912,19 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>8</v>
+        <v>109</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>net demand for AO</t>
+          <t>net demand for normal</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>50</v>
+        <v>125</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
@@ -5514,7 +5934,7 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>45300</v>
+        <v>45299</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -5527,15 +5947,15 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>net demand for AO</t>
+          <t>net demand for forecast</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
@@ -5545,7 +5965,7 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>45301</v>
+        <v>45300</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
@@ -5558,15 +5978,15 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>net demand for AO</t>
+          <t>net demand for forecast</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
@@ -5576,7 +5996,7 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>45298</v>
+        <v>45301</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
@@ -5589,19 +6009,329 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="F62" t="n">
+        <v>37</v>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>supply shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>45302</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>44</v>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="F63" t="n">
+        <v>37</v>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>supply shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>80</v>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>net demand for safety</t>
+        </is>
+      </c>
+      <c r="F64" t="n">
+        <v>100</v>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>supply shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>7</v>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>net demand for AO</t>
+        </is>
+      </c>
+      <c r="F65" t="n">
+        <v>50</v>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>supply shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>45299</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>7</v>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>net demand for AO</t>
+        </is>
+      </c>
+      <c r="F66" t="n">
+        <v>50</v>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>supply shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>45300</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>7</v>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>net demand for AO</t>
+        </is>
+      </c>
+      <c r="F67" t="n">
+        <v>50</v>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>supply shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>45301</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>7</v>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>net demand for AO</t>
+        </is>
+      </c>
+      <c r="F68" t="n">
+        <v>50</v>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>supply shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>29</v>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
           <t>net demand for normal</t>
         </is>
       </c>
-      <c r="F62" t="n">
+      <c r="F69" t="n">
         <v>50</v>
       </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>supply shortage</t>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>supply shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>80</v>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>safety</t>
+        </is>
+      </c>
+      <c r="F70" t="n">
+        <v>16</v>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>space constraint</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>100</v>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>safety</t>
+        </is>
+      </c>
+      <c r="F71" t="n">
+        <v>27</v>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>space constraint</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
+        <v>36</v>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="F72" t="n">
+        <v>50</v>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>space constraint</t>
         </is>
       </c>
     </row>
@@ -5679,7 +6409,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -5691,7 +6421,7 @@
         <v>45298</v>
       </c>
       <c r="D2" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -5700,16 +6430,16 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>122</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>122</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -5720,14 +6450,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="C3" s="2" t="n">
         <v>45298</v>
       </c>
       <c r="D3" t="n">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -5736,16 +6466,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>97</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4">
@@ -5756,14 +6486,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="C4" s="2" t="n">
         <v>45298</v>
       </c>
       <c r="D4" t="n">
-        <v>56</v>
+        <v>1484</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -5772,22 +6502,22 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>82</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>93</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -5799,7 +6529,7 @@
         <v>45298</v>
       </c>
       <c r="D5" t="n">
-        <v>40</v>
+        <v>203</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -5808,34 +6538,34 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>84</v>
+        <v>44</v>
       </c>
       <c r="H5" t="n">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>71</v>
+        <v>221</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C6" s="2" t="n">
         <v>45298</v>
       </c>
       <c r="D6" t="n">
-        <v>120</v>
+        <v>35</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -5844,34 +6574,34 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>120</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C7" s="2" t="n">
         <v>45298</v>
       </c>
       <c r="D7" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -5889,7 +6619,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/e2e_test_output_12week_forecast_test/simulation_output/module5/Module5Output_20240107.xlsx
+++ b/e2e_test_output_12week_forecast_test/simulation_output/module5/Module5Output_20240107.xlsx
@@ -629,7 +629,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -637,7 +637,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -782,7 +782,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -790,7 +790,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -833,7 +833,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -841,7 +841,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -884,7 +884,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -892,7 +892,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -935,7 +935,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -943,7 +943,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -986,7 +986,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -994,7 +994,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>1232</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="13">
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>1232</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="14">
@@ -1167,7 +1167,7 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>1232</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="15">
@@ -1218,7 +1218,7 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>1232</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="16">
@@ -1269,7 +1269,7 @@
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>1232</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="17">
@@ -1320,7 +1320,7 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>1232</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="18">
@@ -1371,7 +1371,7 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>1232</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="19">
@@ -1422,7 +1422,7 @@
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>1232</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="20">
@@ -1445,7 +1445,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -1453,7 +1453,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1473,7 +1473,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>1232</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="21">
@@ -1626,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>1232</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="24">
@@ -1677,7 +1677,7 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>1232</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="25">
@@ -1728,7 +1728,7 @@
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>1232</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="26">
@@ -1779,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>1232</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="27">
@@ -1830,7 +1830,7 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>1232</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="28">
@@ -1853,7 +1853,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -1861,7 +1861,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1881,7 +1881,7 @@
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>1232</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="29">
@@ -1932,7 +1932,7 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>1232</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="30">
@@ -1983,7 +1983,7 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>1232</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="31">
@@ -2034,7 +2034,7 @@
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>1232</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="32">
@@ -2068,7 +2068,7 @@
         <v>41</v>
       </c>
       <c r="H32" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="I32" s="2" t="n">
         <v>45298</v>
@@ -2082,19 +2082,19 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="M32" t="n">
-        <v>1232</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45298</v>
+        <v>45299</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -2108,21 +2108,21 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="H33" t="n">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I33" s="2" t="n">
-        <v>45298</v>
+        <v>45299</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
@@ -2133,19 +2133,21 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0</v>
+        <v>28</v>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45299</v>
+        <v>45300</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -2155,36 +2157,36 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H34" t="n">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="I34" s="2" t="n">
-        <v>45299</v>
+        <v>45300</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="K34" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
@@ -2194,11 +2196,11 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45300</v>
+        <v>45301</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2208,36 +2210,36 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H35" t="n">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="I35" s="2" t="n">
-        <v>45300</v>
+        <v>45301</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="K35" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
@@ -2247,11 +2249,11 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45301</v>
+        <v>45302</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2261,36 +2263,36 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H36" t="n">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="I36" s="2" t="n">
-        <v>45301</v>
+        <v>45302</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="K36" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
@@ -2300,11 +2302,11 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45302</v>
+        <v>45303</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2314,36 +2316,36 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H37" t="n">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="I37" s="2" t="n">
-        <v>45302</v>
+        <v>45303</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="K37" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
@@ -2353,11 +2355,11 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45298</v>
+        <v>45304</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2367,39 +2369,41 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="E38" t="n">
+        <v>32</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+      <c r="G38" t="n">
         <v>50</v>
       </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>net demand for safety</t>
-        </is>
-      </c>
-      <c r="G38" t="n">
-        <v>60</v>
-      </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="I38" s="2" t="n">
-        <v>45292</v>
+        <v>45304</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="K38" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>1232</v>
+        <v>28</v>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="39">
@@ -2408,7 +2412,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2418,48 +2422,48 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>net demand for AO</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="I39" s="2" t="n">
         <v>45298</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="K39" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>1232</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45299</v>
+        <v>45298</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2469,50 +2473,48 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>net demand for AO</t>
+          <t>normal</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I40" s="2" t="n">
-        <v>45299</v>
+        <v>45298</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="K40" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
       </c>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="M40" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45300</v>
+        <v>45299</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2522,36 +2524,36 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>3</v>
+        <v>111</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>net demand for AO</t>
+          <t>net demand for forecast</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>40</v>
+        <v>125</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="I41" s="2" t="n">
-        <v>45300</v>
+        <v>45299</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K41" t="n">
         <v>4</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
@@ -2561,11 +2563,11 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45298</v>
+        <v>45300</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2575,44 +2577,46 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>23</v>
+        <v>111</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>net demand for normal</t>
+          <t>net demand for forecast</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>40</v>
+        <v>125</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="I42" s="2" t="n">
-        <v>45298</v>
+        <v>45300</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K42" t="n">
         <v>4</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
-      </c>
-      <c r="M42" t="n">
-        <v>1232</v>
+        <v>72</v>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45299</v>
+        <v>45301</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -2626,36 +2630,36 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>33</v>
+        <v>96</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>net demand for forecast</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H43" t="n">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="I43" s="2" t="n">
-        <v>45299</v>
+        <v>45301</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L43" t="n">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
@@ -2665,7 +2669,7 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45300</v>
+        <v>45302</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -2679,36 +2683,36 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>33</v>
+        <v>110</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>net demand for forecast</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>50</v>
+        <v>125</v>
       </c>
       <c r="H44" t="n">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="I44" s="2" t="n">
-        <v>45300</v>
+        <v>45302</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L44" t="n">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
@@ -2718,7 +2722,7 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45301</v>
+        <v>45298</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -2732,46 +2736,44 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>net demand for safety</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="H45" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="I45" s="2" t="n">
-        <v>45301</v>
+        <v>45292</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L45" t="n">
-        <v>13</v>
-      </c>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>1000</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45302</v>
+        <v>45298</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -2785,46 +2787,44 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>net demand for AO</t>
         </is>
       </c>
       <c r="G46" t="n">
         <v>50</v>
       </c>
       <c r="H46" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="I46" s="2" t="n">
-        <v>45302</v>
+        <v>45298</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L46" t="n">
-        <v>13</v>
-      </c>
-      <c r="M46" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>1000</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45303</v>
+        <v>45299</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -2838,36 +2838,36 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>net demand for AO</t>
         </is>
       </c>
       <c r="G47" t="n">
         <v>50</v>
       </c>
       <c r="H47" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="I47" s="2" t="n">
-        <v>45303</v>
+        <v>45299</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K47" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L47" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
@@ -2877,7 +2877,7 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45304</v>
+        <v>45300</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -2891,36 +2891,36 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>net demand for AO</t>
         </is>
       </c>
       <c r="G48" t="n">
         <v>50</v>
       </c>
       <c r="H48" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="I48" s="2" t="n">
-        <v>45304</v>
+        <v>45300</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K48" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L48" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
@@ -2930,7 +2930,7 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45298</v>
+        <v>45301</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -2944,39 +2944,41 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>net demand for AO</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H49" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="I49" s="2" t="n">
-        <v>45298</v>
+        <v>45301</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K49" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L49" t="n">
         <v>0</v>
       </c>
-      <c r="M49" t="n">
-        <v>0</v>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="50">
@@ -2995,39 +2997,39 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>36</v>
+        <v>106</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>net demand for normal</t>
         </is>
       </c>
       <c r="G50" t="n">
-        <v>50</v>
+        <v>125</v>
       </c>
       <c r="H50" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="I50" s="2" t="n">
         <v>45298</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K50" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L50" t="n">
         <v>0</v>
       </c>
       <c r="M50" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="51">
@@ -3046,11 +3048,11 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>111</v>
+        <v>44</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
@@ -3058,24 +3060,24 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>125</v>
+        <v>50</v>
       </c>
       <c r="H51" t="n">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="I51" s="2" t="n">
         <v>45299</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K51" t="n">
         <v>4</v>
       </c>
       <c r="L51" t="n">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
@@ -3099,11 +3101,11 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>111</v>
+        <v>44</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
@@ -3111,24 +3113,24 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>125</v>
+        <v>50</v>
       </c>
       <c r="H52" t="n">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="I52" s="2" t="n">
         <v>45300</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K52" t="n">
         <v>4</v>
       </c>
       <c r="L52" t="n">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
@@ -3152,11 +3154,11 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>95</v>
+        <v>37</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
@@ -3164,24 +3166,24 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H53" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I53" s="2" t="n">
         <v>45301</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K53" t="n">
         <v>4</v>
       </c>
       <c r="L53" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
@@ -3205,11 +3207,11 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>110</v>
+        <v>44</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
@@ -3217,24 +3219,24 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>125</v>
+        <v>50</v>
       </c>
       <c r="H54" t="n">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="I54" s="2" t="n">
         <v>45302</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K54" t="n">
         <v>4</v>
       </c>
       <c r="L54" t="n">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
@@ -3258,11 +3260,11 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
@@ -3270,7 +3272,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3280,7 +3282,7 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K55" t="n">
@@ -3290,7 +3292,7 @@
         <v>0</v>
       </c>
       <c r="M55" t="n">
-        <v>1000</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="56">
@@ -3309,11 +3311,11 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
@@ -3331,7 +3333,7 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K56" t="n">
@@ -3341,7 +3343,7 @@
         <v>0</v>
       </c>
       <c r="M56" t="n">
-        <v>1000</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="57">
@@ -3360,11 +3362,11 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
@@ -3382,7 +3384,7 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K57" t="n">
@@ -3413,11 +3415,11 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
@@ -3435,7 +3437,7 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K58" t="n">
@@ -3466,11 +3468,11 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
@@ -3488,7 +3490,7 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K59" t="n">
@@ -3519,11 +3521,11 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>109</v>
+        <v>35</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
@@ -3531,7 +3533,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>125</v>
+        <v>50</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -3541,7 +3543,7 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K60" t="n">
@@ -3551,16 +3553,16 @@
         <v>0</v>
       </c>
       <c r="M60" t="n">
-        <v>1000</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>45299</v>
+        <v>45298</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3570,50 +3572,48 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G61" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="H61" t="n">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="I61" s="2" t="n">
-        <v>45299</v>
+        <v>45298</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="K61" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L61" t="n">
-        <v>13</v>
-      </c>
-      <c r="M61" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>45300</v>
+        <v>45299</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3627,7 +3627,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
@@ -3635,13 +3635,13 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H62" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I62" s="2" t="n">
-        <v>45300</v>
+        <v>45299</v>
       </c>
       <c r="J62" t="inlineStr">
         <is>
@@ -3652,7 +3652,7 @@
         <v>4</v>
       </c>
       <c r="L62" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M62" t="inlineStr">
         <is>
@@ -3662,11 +3662,11 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>45301</v>
+        <v>45300</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3680,7 +3680,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
@@ -3688,13 +3688,13 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H63" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I63" s="2" t="n">
-        <v>45301</v>
+        <v>45300</v>
       </c>
       <c r="J63" t="inlineStr">
         <is>
@@ -3705,7 +3705,7 @@
         <v>4</v>
       </c>
       <c r="L63" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M63" t="inlineStr">
         <is>
@@ -3715,11 +3715,11 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>45302</v>
+        <v>45301</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3733,7 +3733,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
@@ -3741,13 +3741,13 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H64" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I64" s="2" t="n">
-        <v>45302</v>
+        <v>45301</v>
       </c>
       <c r="J64" t="inlineStr">
         <is>
@@ -3758,7 +3758,7 @@
         <v>4</v>
       </c>
       <c r="L64" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
@@ -3768,11 +3768,11 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>45298</v>
+        <v>45302</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3786,21 +3786,21 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>80</v>
+        <v>21</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>net demand for safety</t>
+          <t>net demand for forecast</t>
         </is>
       </c>
       <c r="G65" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="I65" s="2" t="n">
-        <v>45292</v>
+        <v>45302</v>
       </c>
       <c r="J65" t="inlineStr">
         <is>
@@ -3811,10 +3811,12 @@
         <v>4</v>
       </c>
       <c r="L65" t="n">
-        <v>0</v>
-      </c>
-      <c r="M65" t="n">
-        <v>1232</v>
+        <v>16</v>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="66">
@@ -3823,7 +3825,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3837,21 +3839,21 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>net demand for AO</t>
+          <t>net demand for safety</t>
         </is>
       </c>
       <c r="G66" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
       </c>
       <c r="I66" s="2" t="n">
-        <v>45298</v>
+        <v>45292</v>
       </c>
       <c r="J66" t="inlineStr">
         <is>
@@ -3865,16 +3867,16 @@
         <v>0</v>
       </c>
       <c r="M66" t="n">
-        <v>1232</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>45299</v>
+        <v>45298</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3888,7 +3890,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
@@ -3896,13 +3898,13 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
       </c>
       <c r="I67" s="2" t="n">
-        <v>45299</v>
+        <v>45298</v>
       </c>
       <c r="J67" t="inlineStr">
         <is>
@@ -3915,19 +3917,17 @@
       <c r="L67" t="n">
         <v>0</v>
       </c>
-      <c r="M67" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="M67" t="n">
+        <v>1179</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>45300</v>
+        <v>45299</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3941,7 +3941,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
@@ -3949,13 +3949,13 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
       </c>
       <c r="I68" s="2" t="n">
-        <v>45300</v>
+        <v>45299</v>
       </c>
       <c r="J68" t="inlineStr">
         <is>
@@ -3976,11 +3976,11 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>45301</v>
+        <v>45300</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3994,7 +3994,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
@@ -4002,13 +4002,13 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
       </c>
       <c r="I69" s="2" t="n">
-        <v>45301</v>
+        <v>45300</v>
       </c>
       <c r="J69" t="inlineStr">
         <is>
@@ -4033,7 +4033,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -4047,7 +4047,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
@@ -4055,7 +4055,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4075,7 +4075,7 @@
         <v>0</v>
       </c>
       <c r="M70" t="n">
-        <v>1232</v>
+        <v>1179</v>
       </c>
     </row>
   </sheetData>
@@ -4211,7 +4211,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -4219,7 +4219,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -4304,7 +4304,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -4312,7 +4312,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -4335,7 +4335,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -4343,7 +4343,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -4366,7 +4366,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -4374,7 +4374,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -4397,7 +4397,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -4405,7 +4405,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -4428,7 +4428,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -4436,7 +4436,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -4707,7 +4707,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -4715,7 +4715,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -4955,7 +4955,7 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -4963,7 +4963,7 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -5087,7 +5087,7 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -5097,7 +5097,7 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45298</v>
+        <v>45299</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -5110,15 +5110,15 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>64</v>
+        <v>22</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -5128,7 +5128,7 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45299</v>
+        <v>45300</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -5137,19 +5137,19 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
         <v>22</v>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>net demand for forecast</t>
-        </is>
-      </c>
-      <c r="F34" t="n">
-        <v>32</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -5159,7 +5159,7 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45300</v>
+        <v>45301</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -5168,19 +5168,19 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -5190,7 +5190,7 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45301</v>
+        <v>45302</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -5199,19 +5199,19 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="D36" t="n">
+        <v>32</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
         <v>22</v>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>net demand for forecast</t>
-        </is>
-      </c>
-      <c r="F36" t="n">
-        <v>32</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -5221,7 +5221,7 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45302</v>
+        <v>45303</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -5230,19 +5230,19 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -5252,7 +5252,7 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45298</v>
+        <v>45304</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -5261,19 +5261,19 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>net demand for safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -5292,19 +5292,19 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>net demand for AO</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -5323,19 +5323,19 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>3</v>
+        <v>111</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>net demand for AO</t>
+          <t>net demand for forecast</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -5354,19 +5354,19 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>3</v>
+        <v>111</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>net demand for AO</t>
+          <t>net demand for forecast</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -5376,7 +5376,7 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45298</v>
+        <v>45301</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -5385,19 +5385,19 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>23</v>
+        <v>96</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>net demand for normal</t>
+          <t>net demand for forecast</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -5407,7 +5407,7 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45299</v>
+        <v>45302</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -5416,19 +5416,19 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>33</v>
+        <v>110</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>net demand for forecast</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -5438,7 +5438,7 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45300</v>
+        <v>45298</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -5447,19 +5447,19 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>net demand for safety</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -5469,7 +5469,7 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45301</v>
+        <v>45298</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -5478,19 +5478,19 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>net demand for AO</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -5500,7 +5500,7 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45302</v>
+        <v>45299</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -5509,19 +5509,19 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>net demand for AO</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -5531,7 +5531,7 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45303</v>
+        <v>45300</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -5540,19 +5540,19 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>net demand for AO</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -5562,7 +5562,7 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45304</v>
+        <v>45301</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -5571,19 +5571,19 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>net demand for AO</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -5602,19 +5602,19 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>net demand for normal</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>73</v>
+        <v>125</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -5633,11 +5633,11 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>111</v>
+        <v>44</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -5645,7 +5645,7 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>92</v>
+        <v>22</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -5664,11 +5664,11 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>111</v>
+        <v>44</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -5676,7 +5676,7 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>92</v>
+        <v>22</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -5695,11 +5695,11 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>95</v>
+        <v>37</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -5707,7 +5707,7 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -5726,11 +5726,11 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>110</v>
+        <v>44</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -5738,7 +5738,7 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>92</v>
+        <v>22</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
@@ -5757,11 +5757,11 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -5769,7 +5769,7 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -5788,11 +5788,11 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -5819,11 +5819,11 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -5850,11 +5850,11 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -5881,11 +5881,11 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -5912,11 +5912,11 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>109</v>
+        <v>35</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -5924,7 +5924,7 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>125</v>
+        <v>50</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
@@ -5934,7 +5934,7 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>45299</v>
+        <v>45298</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -5943,19 +5943,19 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
@@ -5965,7 +5965,7 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>45300</v>
+        <v>45299</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
@@ -5978,7 +5978,7 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -5986,7 +5986,7 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
@@ -5996,7 +5996,7 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>45301</v>
+        <v>45300</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
@@ -6009,7 +6009,7 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -6017,7 +6017,7 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
@@ -6027,7 +6027,7 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>45302</v>
+        <v>45301</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
@@ -6040,7 +6040,7 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -6048,7 +6048,7 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
@@ -6058,7 +6058,7 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>45298</v>
+        <v>45302</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
@@ -6071,15 +6071,15 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>80</v>
+        <v>21</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>net demand for safety</t>
+          <t>net demand for forecast</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>100</v>
+        <v>24</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
@@ -6102,15 +6102,15 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>net demand for AO</t>
+          <t>net demand for safety</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
@@ -6120,7 +6120,7 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>45299</v>
+        <v>45298</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
@@ -6133,7 +6133,7 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -6141,7 +6141,7 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
@@ -6151,7 +6151,7 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>45300</v>
+        <v>45299</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
@@ -6164,7 +6164,7 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -6172,7 +6172,7 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
@@ -6182,7 +6182,7 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>45301</v>
+        <v>45300</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
@@ -6195,7 +6195,7 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -6203,7 +6203,7 @@
         </is>
       </c>
       <c r="F68" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
@@ -6226,7 +6226,7 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -6234,7 +6234,7 @@
         </is>
       </c>
       <c r="F69" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
@@ -6257,7 +6257,7 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -6265,7 +6265,7 @@
         </is>
       </c>
       <c r="F70" t="n">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
@@ -6288,15 +6288,15 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>normal</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
@@ -6319,15 +6319,15 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
@@ -6430,10 +6430,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>122</v>
+        <v>53</v>
       </c>
       <c r="H2" t="n">
-        <v>122</v>
+        <v>53</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -6450,14 +6450,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C3" s="2" t="n">
         <v>45298</v>
       </c>
       <c r="D3" t="n">
-        <v>128</v>
+        <v>211</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -6466,34 +6466,34 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>128</v>
+        <v>221</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C4" s="2" t="n">
         <v>45298</v>
       </c>
       <c r="D4" t="n">
-        <v>1484</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -6505,19 +6505,19 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>1448</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -6529,7 +6529,7 @@
         <v>45298</v>
       </c>
       <c r="D5" t="n">
-        <v>203</v>
+        <v>5</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -6538,16 +6538,16 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>44</v>
+        <v>144</v>
       </c>
       <c r="H5" t="n">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>221</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6">
@@ -6558,14 +6558,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="C6" s="2" t="n">
         <v>45298</v>
       </c>
       <c r="D6" t="n">
-        <v>35</v>
+        <v>1262</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -6574,16 +6574,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>47</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="7">
@@ -6594,14 +6594,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="C7" s="2" t="n">
         <v>45298</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>283</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -6619,7 +6619,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>283</v>
       </c>
     </row>
   </sheetData>
